--- a/output/LUAD_statistics.xlsx
+++ b/output/LUAD_statistics.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="168">
   <si>
     <t>capri_bic.SELECTS</t>
   </si>
@@ -57,6 +57,12 @@
     <t>11</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -108,9 +114,6 @@
     <t>18</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -159,9 +162,6 @@
     <t>35</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
@@ -234,49 +234,88 @@
     <t>60</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
     <t>Pattern OR_STK11_TP53</t>
   </si>
   <si>
+    <t>Pattern OR_KRAS_TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDK4_TP53</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
     <t>Del/Ins_Mutations KEAP1</t>
   </si>
   <si>
-    <t>Amplification 13726</t>
-  </si>
-  <si>
-    <t>Amplification 14558</t>
-  </si>
-  <si>
-    <t>Amplification 14949</t>
-  </si>
-  <si>
-    <t>Amplification 15012</t>
-  </si>
-  <si>
-    <t>Amplification 1586</t>
-  </si>
-  <si>
-    <t>Amplification 21264</t>
-  </si>
-  <si>
-    <t>Amplification 5264</t>
-  </si>
-  <si>
-    <t>Amplification 9125</t>
-  </si>
-  <si>
-    <t>Amplification 9570</t>
-  </si>
-  <si>
-    <t>Amplification 9738</t>
-  </si>
-  <si>
-    <t>Deletion 10928</t>
-  </si>
-  <si>
-    <t>Deletion 15764</t>
+    <t>Nonsense_Mutation RB1</t>
+  </si>
+  <si>
+    <t>Missense_Mutation CDKN2A</t>
+  </si>
+  <si>
+    <t>Amplification BRAF</t>
+  </si>
+  <si>
+    <t>Amplification CCND1</t>
+  </si>
+  <si>
+    <t>Amplification CCNE1</t>
+  </si>
+  <si>
+    <t>Amplification CDK4</t>
+  </si>
+  <si>
+    <t>Amplification EGFR</t>
+  </si>
+  <si>
+    <t>Amplification KRAS</t>
+  </si>
+  <si>
+    <t>Amplification MDM2</t>
+  </si>
+  <si>
+    <t>Amplification MET</t>
+  </si>
+  <si>
+    <t>Amplification PIK3CA</t>
+  </si>
+  <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
+    <t>Deletion RB1</t>
   </si>
   <si>
     <t>Missense_Mutation ARID1A</t>
@@ -294,9 +333,6 @@
     <t>Missense_Mutation BRAF</t>
   </si>
   <si>
-    <t>Missense_Mutation CDKN2A</t>
-  </si>
-  <si>
     <t>Missense_Mutation EGFR</t>
   </si>
   <si>
@@ -345,9 +381,6 @@
     <t>Nonsense_Mutation NF1</t>
   </si>
   <si>
-    <t>Nonsense_Mutation RB1</t>
-  </si>
-  <si>
     <t>Nonsense_Mutation RBM10</t>
   </si>
   <si>
@@ -369,9 +402,18 @@
     <t>Pattern OR_ATM</t>
   </si>
   <si>
+    <t>Pattern OR_BRAF</t>
+  </si>
+  <si>
     <t>Pattern OR_BRAF_EGFR_KRAS_NF1</t>
   </si>
   <si>
+    <t>Pattern OR_BRAF_EGFR_KRAS_NF1_RIT1</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDKN2A</t>
+  </si>
+  <si>
     <t>Pattern OR_EGFR</t>
   </si>
   <si>
@@ -387,12 +429,18 @@
     <t>Pattern OR_EGFR_STK11</t>
   </si>
   <si>
-    <t>Pattern OR_KRAS_TP53</t>
+    <t>Pattern OR_KRAS</t>
+  </si>
+  <si>
+    <t>Pattern OR_MDM2_TP53</t>
   </si>
   <si>
     <t>Pattern OR_NF1</t>
   </si>
   <si>
+    <t>Pattern OR_PIK3CA</t>
+  </si>
+  <si>
     <t>Pattern OR_PIK3CA_STK11</t>
   </si>
   <si>
@@ -414,6 +462,12 @@
     <t>Pattern XOR_KEAP1</t>
   </si>
   <si>
+    <t>Pattern XOR_MET</t>
+  </si>
+  <si>
+    <t>Pattern XOR_RB1</t>
+  </si>
+  <si>
     <t>Pattern XOR_RBM10</t>
   </si>
   <si>
@@ -456,10 +510,10 @@
     <t>capri_aic.SD.POSTERR</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
   </si>
   <si>
     <t>Del/Ins_Mutations RBM10</t>
@@ -560,10 +614,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D2" t="n">
         <v>279.0</v>
@@ -581,7 +635,7 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
@@ -604,43 +658,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#NUM!</v>
+        <v>87</v>
+      </c>
+      <c r="D3" t="n">
+        <v>327.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0382612502375296</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0318012848103768</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0317970902514371</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04051172707889126</v>
+        <v>0.021321961620469083</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
-      <c r="M3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N3" t="e">
-        <v>#NUM!</v>
+      <c r="M3" t="n">
+        <v>0.0213219616204691</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -648,43 +702,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J4" t="e">
-        <v>#NUM!</v>
+        <v>88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0382612502375296</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0382612502375296</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0124042560537172</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07036247334754797</v>
+        <v>0.02771855010660981</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N4" t="e">
-        <v>#NUM!</v>
+        <v>1.1564823173178713E-18</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0277185501066098</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.15648231731787E-18</v>
       </c>
     </row>
     <row r="5">
@@ -692,10 +746,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
@@ -719,10 +773,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06183368869936034</v>
+        <v>0.023454157782515993</v>
       </c>
       <c r="L5" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M5" t="e">
         <v>#NUM!</v>
@@ -736,10 +790,10 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D6" t="e">
         <v>#NUM!</v>
@@ -763,10 +817,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.04051172707889126</v>
       </c>
       <c r="L6" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="e">
         <v>#NUM!</v>
@@ -780,10 +834,10 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D7" t="e">
         <v>#NUM!</v>
@@ -807,10 +861,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1257995735607676</v>
+        <v>0.05543710021321962</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M7" t="e">
         <v>#NUM!</v>
@@ -824,10 +878,10 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D8" t="e">
         <v>#NUM!</v>
@@ -851,7 +905,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.06183368869936034</v>
       </c>
       <c r="L8" t="n">
         <v>2.3129646346357427E-18</v>
@@ -868,10 +922,10 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D9" t="e">
         <v>#NUM!</v>
@@ -895,10 +949,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02771855010660981</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M9" t="e">
         <v>#NUM!</v>
@@ -912,10 +966,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D10" t="e">
         <v>#NUM!</v>
@@ -939,10 +993,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05970149253731343</v>
+        <v>0.07036247334754797</v>
       </c>
       <c r="L10" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M10" t="e">
         <v>#NUM!</v>
@@ -956,10 +1010,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D11" t="e">
         <v>#NUM!</v>
@@ -983,10 +1037,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K11" t="n">
-        <v>0.031982942430703626</v>
+        <v>0.05543710021321962</v>
       </c>
       <c r="L11" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M11" t="e">
         <v>#NUM!</v>
@@ -1000,10 +1054,10 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D12" t="e">
         <v>#NUM!</v>
@@ -1027,7 +1081,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K12" t="n">
-        <v>0.023454157782515993</v>
+        <v>0.031982942430703626</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
@@ -1044,10 +1098,10 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D13" t="e">
         <v>#NUM!</v>
@@ -1071,7 +1125,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K13" t="n">
-        <v>0.17270788912579957</v>
+        <v>0.02771855010660981</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
@@ -1088,10 +1142,10 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D14" t="e">
         <v>#NUM!</v>
@@ -1115,7 +1169,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K14" t="n">
-        <v>0.021321961620469083</v>
+        <v>0.1257995735607676</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
@@ -1132,10 +1186,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D15" t="e">
         <v>#NUM!</v>
@@ -1159,7 +1213,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.023454157782515993</v>
+        <v>0.17270788912579957</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
@@ -1176,10 +1230,10 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D16" t="e">
         <v>#NUM!</v>
@@ -1203,7 +1257,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K16" t="n">
-        <v>0.042643923240938165</v>
+        <v>0.021321961620469083</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
@@ -1220,10 +1274,10 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -1247,7 +1301,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0255863539445629</v>
+        <v>0.023454157782515993</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
@@ -1264,10 +1318,10 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -1291,10 +1345,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.042643923240938165</v>
       </c>
       <c r="L18" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M18" t="e">
         <v>#NUM!</v>
@@ -1308,10 +1362,10 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -1335,7 +1389,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07889125799573561</v>
+        <v>0.0255863539445629</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
@@ -1352,10 +1406,10 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -1379,10 +1433,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02771855010660981</v>
+        <v>0.05543710021321962</v>
       </c>
       <c r="L20" t="n">
-        <v>1.1564823173178713E-18</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M20" t="e">
         <v>#NUM!</v>
@@ -1396,10 +1450,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1423,7 +1477,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0767590618336887</v>
+        <v>0.07889125799573561</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
@@ -1440,10 +1494,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -1467,7 +1521,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K22" t="n">
-        <v>0.14498933901918976</v>
+        <v>0.0767590618336887</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
@@ -1484,10 +1538,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -1511,7 +1565,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3006396588486141</v>
+        <v>0.14498933901918976</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
@@ -1528,10 +1582,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -1555,7 +1609,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K24" t="n">
-        <v>0.021321961620469083</v>
+        <v>0.3006396588486141</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
@@ -1572,10 +1626,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -1599,10 +1653,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04477611940298507</v>
+        <v>0.021321961620469083</v>
       </c>
       <c r="L25" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>
@@ -1616,10 +1670,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -1643,10 +1697,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" t="n">
-        <v>0.05970149253731343</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M26" t="e">
         <v>#NUM!</v>
@@ -1660,10 +1714,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1687,10 +1741,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K27" t="n">
-        <v>0.023454157782515993</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M27" t="e">
         <v>#NUM!</v>
@@ -1704,10 +1758,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -1731,10 +1785,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.023454157782515993</v>
       </c>
       <c r="L28" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M28" t="e">
         <v>#NUM!</v>
@@ -1748,10 +1802,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -1775,10 +1829,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K29" t="n">
-        <v>0.03411513859275053</v>
+        <v>0.05543710021321962</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M29" t="e">
         <v>#NUM!</v>
@@ -1792,10 +1846,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -1819,10 +1873,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K30" t="n">
-        <v>0.053304904051172705</v>
+        <v>0.03411513859275053</v>
       </c>
       <c r="L30" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M30" t="e">
         <v>#NUM!</v>
@@ -1836,10 +1890,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -1863,10 +1917,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K31" t="n">
-        <v>0.04477611940298507</v>
+        <v>0.053304904051172705</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M31" t="e">
         <v>#NUM!</v>
@@ -1880,10 +1934,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -1907,7 +1961,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K32" t="n">
-        <v>0.31343283582089554</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
@@ -1924,10 +1978,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -1951,10 +2005,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K33" t="n">
-        <v>0.02771855010660981</v>
+        <v>0.31343283582089554</v>
       </c>
       <c r="L33" t="n">
-        <v>1.1564823173178713E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M33" t="e">
         <v>#NUM!</v>
@@ -1968,10 +2022,10 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D34" t="e">
         <v>#NUM!</v>
@@ -1995,7 +2049,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K34" t="n">
-        <v>0.021321961620469083</v>
+        <v>0.02771855010660981</v>
       </c>
       <c r="L34" t="n">
         <v>0.0</v>
@@ -2012,10 +2066,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D35" t="e">
         <v>#NUM!</v>
@@ -2056,10 +2110,10 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D36" t="e">
         <v>#NUM!</v>
@@ -2100,10 +2154,10 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -2144,10 +2198,10 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
@@ -2174,7 +2228,7 @@
         <v>0.029850746268656716</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0</v>
+        <v>1.1564823173178713E-18</v>
       </c>
       <c r="M38" t="e">
         <v>#NUM!</v>
@@ -2188,10 +2242,10 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D39" t="e">
         <v>#NUM!</v>
@@ -2232,10 +2286,10 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D40" t="e">
         <v>#NUM!</v>
@@ -2262,7 +2316,7 @@
         <v>0.02771855010660981</v>
       </c>
       <c r="L40" t="n">
-        <v>1.1564823173178713E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M40" t="e">
         <v>#NUM!</v>
@@ -2276,10 +2330,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -2306,7 +2360,7 @@
         <v>0.046908315565031986</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M41" t="e">
         <v>#NUM!</v>
@@ -2320,10 +2374,10 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -2364,10 +2418,10 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D43" t="e">
         <v>#NUM!</v>
@@ -2394,7 +2448,7 @@
         <v>0.042643923240938165</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M43" t="e">
         <v>#NUM!</v>
@@ -2408,10 +2462,10 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D44" t="e">
         <v>#NUM!</v>
@@ -2452,10 +2506,10 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D45" t="e">
         <v>#NUM!</v>
@@ -2479,7 +2533,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K45" t="n">
-        <v>0.42217484008528783</v>
+        <v>0.10021321961620469</v>
       </c>
       <c r="L45" t="n">
         <v>0.0</v>
@@ -2496,10 +2550,10 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -2523,10 +2577,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1279317697228145</v>
+        <v>0.3773987206823028</v>
       </c>
       <c r="L46" t="n">
-        <v>1.3084103822364792E-17</v>
+        <v>0.0</v>
       </c>
       <c r="M46" t="e">
         <v>#NUM!</v>
@@ -2540,10 +2594,10 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D47" t="e">
         <v>#NUM!</v>
@@ -2567,7 +2621,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K47" t="n">
-        <v>0.42643923240938164</v>
+        <v>0.3326226012793177</v>
       </c>
       <c r="L47" t="n">
         <v>0.0</v>
@@ -2584,10 +2638,10 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -2611,10 +2665,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4840085287846482</v>
+        <v>0.4901918976545842</v>
       </c>
       <c r="L48" t="n">
-        <v>0.00449506419355846</v>
+        <v>0.01041895375289074</v>
       </c>
       <c r="M48" t="e">
         <v>#NUM!</v>
@@ -2628,10 +2682,10 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D49" t="e">
         <v>#NUM!</v>
@@ -2655,7 +2709,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2046908315565032</v>
+        <v>0.19402985074626866</v>
       </c>
       <c r="L49" t="n">
         <v>0.0</v>
@@ -2672,10 +2726,10 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D50" t="e">
         <v>#NUM!</v>
@@ -2699,7 +2753,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2771855010660981</v>
+        <v>0.15565031982942432</v>
       </c>
       <c r="L50" t="n">
         <v>0.0</v>
@@ -2716,10 +2770,10 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D51" t="e">
         <v>#NUM!</v>
@@ -2743,7 +2797,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K51" t="n">
-        <v>0.31556503198294245</v>
+        <v>0.47761194029850745</v>
       </c>
       <c r="L51" t="n">
         <v>0.0</v>
@@ -2760,10 +2814,10 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D52" t="e">
         <v>#NUM!</v>
@@ -2787,7 +2841,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K52" t="n">
-        <v>0.09808102345415778</v>
+        <v>0.44136460554371004</v>
       </c>
       <c r="L52" t="n">
         <v>0.0</v>
@@ -2804,10 +2858,10 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D53" t="e">
         <v>#NUM!</v>
@@ -2831,7 +2885,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2025586353944563</v>
+        <v>0.2302771855010661</v>
       </c>
       <c r="L53" t="n">
         <v>0.0</v>
@@ -2848,10 +2902,10 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D54" t="e">
         <v>#NUM!</v>
@@ -2875,10 +2929,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K54" t="n">
-        <v>0.057569296375266525</v>
+        <v>0.302771855010661</v>
       </c>
       <c r="L54" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M54" t="e">
         <v>#NUM!</v>
@@ -2892,10 +2946,10 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D55" t="e">
         <v>#NUM!</v>
@@ -2919,7 +2973,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K55" t="n">
-        <v>0.07889125799573561</v>
+        <v>0.3347547974413646</v>
       </c>
       <c r="L55" t="n">
         <v>0.0</v>
@@ -2936,10 +2990,10 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="D56" t="e">
         <v>#NUM!</v>
@@ -2963,7 +3017,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K56" t="n">
-        <v>0.1513859275053305</v>
+        <v>0.302771855010661</v>
       </c>
       <c r="L56" t="n">
         <v>0.0</v>
@@ -2980,10 +3034,10 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="D57" t="e">
         <v>#NUM!</v>
@@ -3007,10 +3061,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4051172707889126</v>
+        <v>0.485501066098081</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0</v>
+        <v>0.004719817403236383</v>
       </c>
       <c r="M57" t="e">
         <v>#NUM!</v>
@@ -3024,10 +3078,10 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -3051,10 +3105,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K58" t="n">
-        <v>0.4899786780383795</v>
+        <v>0.09808102345415778</v>
       </c>
       <c r="L58" t="n">
-        <v>0.017081243935522152</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M58" t="e">
         <v>#NUM!</v>
@@ -3068,10 +3122,10 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D59" t="e">
         <v>#NUM!</v>
@@ -3095,10 +3149,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0511727078891258</v>
+        <v>0.0767590618336887</v>
       </c>
       <c r="L59" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M59" t="e">
         <v>#NUM!</v>
@@ -3112,10 +3166,10 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D60" t="e">
         <v>#NUM!</v>
@@ -3139,7 +3193,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K60" t="n">
-        <v>0.17057569296375266</v>
+        <v>0.21961620469083157</v>
       </c>
       <c r="L60" t="n">
         <v>0.0</v>
@@ -3156,42 +3210,438 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.057569296375266525</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N61" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.07889125799573561</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N62" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
         <v>74</v>
       </c>
-      <c r="C61" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E61" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F61" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G61" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H61" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I61" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J61" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K61" t="n">
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.1513859275053305</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N63" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.4051172707889126</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N64" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.48464818763326223</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.008765375177438998</v>
+      </c>
+      <c r="M65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N65" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K66" t="n">
         <v>0.0511727078891258</v>
       </c>
-      <c r="L61" t="n">
-        <v>2.3129646346357427E-18</v>
-      </c>
-      <c r="M61" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N61" t="e">
+      <c r="L66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N66" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.17057569296375266</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N67" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.053304904051172705</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N68" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.042643923240938165</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N69" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.0511727078891258</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N70" t="e">
         <v>#NUM!</v>
       </c>
     </row>
@@ -3211,43 +3661,43 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="H1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="I1" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="J1" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="K1" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="M1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="N1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2">
@@ -3255,10 +3705,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D2" t="n">
         <v>279.0</v>
@@ -3276,7 +3726,7 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
@@ -3296,72 +3746,72 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D3" t="n">
-        <v>11.0</v>
+        <v>327.0</v>
       </c>
       <c r="E3" t="n">
-        <v>26.0</v>
+        <v>10.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0382612502375296</v>
+        <v>0.0318012848103768</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0671688978580581</v>
+        <v>0.0317970902514371</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.021321961620469083</v>
       </c>
       <c r="L3" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0554371002132196</v>
+        <v>0.0213219616204691</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>149</v>
-      </c>
       <c r="D4" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="E4" t="n">
         <v>26.0</v>
       </c>
-      <c r="E4" t="n">
-        <v>10.0</v>
-      </c>
       <c r="F4" t="n">
-        <v>0.0360990988508288</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0360990988508288</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="H4" t="n">
-        <v>0.15187893000577601</v>
+        <v>0.0485467857697238</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -3369,14 +3819,14 @@
       <c r="J4" t="n">
         <v>0.0</v>
       </c>
-      <c r="K4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L4" t="e">
-        <v>#NUM!</v>
+      <c r="K4" t="n">
+        <v>0.05543710021321962</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0213219616204691</v>
+        <v>0.0554371002132196</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -3384,28 +3834,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="D5" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="E5" t="n">
-        <v>10.0</v>
+        <v>26.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0382612502375296</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0382612502375296</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0894072382163834</v>
+        <v>0.0671688978580581</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -3413,14 +3863,14 @@
       <c r="J5" t="n">
         <v>0.0</v>
       </c>
-      <c r="K5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L5" t="e">
-        <v>#NUM!</v>
+      <c r="K5" t="n">
+        <v>0.05543710021321962</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0213219616204691</v>
+        <v>0.0554371002132196</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -3428,28 +3878,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="D6" t="n">
-        <v>11.0</v>
+        <v>26.0</v>
       </c>
       <c r="E6" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0</v>
+        <v>0.0360990988508288</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0382612502375296</v>
+        <v>0.0360990988508288</v>
       </c>
       <c r="H6" t="n">
-        <v>3.95644774502605E-4</v>
+        <v>0.15187893000577601</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -3457,14 +3907,14 @@
       <c r="J6" t="n">
         <v>0.0</v>
       </c>
-      <c r="K6" t="n">
-        <v>0.03411513859275053</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.0</v>
+      <c r="K6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L6" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0341151385927505</v>
+        <v>0.0213219616204691</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -3472,28 +3922,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="D7" t="n">
-        <v>68.0</v>
+        <v>16.0</v>
       </c>
       <c r="E7" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="G7" t="n">
         <v>0.0382612502375296</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0108225443105317</v>
+        <v>0.0894072382163834</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -3501,14 +3951,14 @@
       <c r="J7" t="n">
         <v>0.0</v>
       </c>
-      <c r="K7" t="n">
-        <v>0.02771855010660981</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.1564823173178713E-18</v>
+      <c r="K7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L7" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0277185501066098</v>
+        <v>0.0213219616204691</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -3516,72 +3966,72 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="D8" t="n">
-        <v>11.0</v>
+        <v>242.0</v>
       </c>
       <c r="E8" t="n">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="G8" t="n">
         <v>0.0382612502375296</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00177891004352494</v>
+        <v>0.0124042560537172</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.057569296375266525</v>
+        <v>0.02771855010660981</v>
       </c>
       <c r="L8" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>1.1564823173178713E-18</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0575692963752665</v>
+        <v>0.0277185501066098</v>
       </c>
       <c r="N8" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D9" t="n">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="E9" t="n">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0382612502375296</v>
+        <v>1.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0382612502375296</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0512586261506916</v>
+        <v>3.95644774502605E-4</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -3590,203 +4040,203 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0511727078891258</v>
+        <v>0.03411513859275053</v>
       </c>
       <c r="L9" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0511727078891258</v>
+        <v>0.0341151385927505</v>
       </c>
       <c r="N9" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J10" t="e">
-        <v>#NUM!</v>
+        <v>124</v>
+      </c>
+      <c r="D10" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0382612502375296</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0108225443105317</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04051172707889126</v>
+        <v>0.02771855010660981</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
-      <c r="M10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N10" t="e">
-        <v>#NUM!</v>
+      <c r="M10" t="n">
+        <v>0.0277185501066098</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J11" t="e">
-        <v>#NUM!</v>
+        <v>132</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0382612502375296</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.00673504031567014</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07036247334754797</v>
+        <v>0.19402985074626866</v>
       </c>
       <c r="L11" t="n">
         <v>0.0</v>
       </c>
-      <c r="M11" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N11" t="e">
-        <v>#NUM!</v>
+      <c r="M11" t="n">
+        <v>0.200213219616205</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.00274346255374823</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J12" t="e">
-        <v>#NUM!</v>
+        <v>143</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0382612502375296</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.00177891004352494</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.06183368869936034</v>
+        <v>0.057569296375266525</v>
       </c>
       <c r="L12" t="n">
-        <v>4.625929269271485E-18</v>
-      </c>
-      <c r="M12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N12" t="e">
-        <v>#NUM!</v>
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0575692963752665</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J13" t="e">
-        <v>#NUM!</v>
+        <v>147</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0382612502375296</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0382612502375296</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0512586261506916</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1257995735607676</v>
+        <v>0.0511727078891258</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
-      <c r="M13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N13" t="e">
-        <v>#NUM!</v>
+      <c r="M13" t="n">
+        <v>0.0511727078891258</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D14" t="e">
         <v>#NUM!</v>
@@ -3810,10 +4260,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.023454157782515993</v>
       </c>
       <c r="L14" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M14" t="e">
         <v>#NUM!</v>
@@ -3824,13 +4274,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D15" t="e">
         <v>#NUM!</v>
@@ -3854,7 +4304,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02771855010660981</v>
+        <v>0.04051172707889126</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
@@ -3868,13 +4318,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D16" t="e">
         <v>#NUM!</v>
@@ -3898,7 +4348,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K16" t="n">
-        <v>0.05970149253731343</v>
+        <v>0.06183368869936034</v>
       </c>
       <c r="L16" t="n">
         <v>2.3129646346357427E-18</v>
@@ -3912,13 +4362,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -3942,10 +4392,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K17" t="n">
-        <v>0.031982942430703626</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="L17" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M17" t="e">
         <v>#NUM!</v>
@@ -3956,13 +4406,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -3986,7 +4436,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K18" t="n">
-        <v>0.023454157782515993</v>
+        <v>0.07036247334754797</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
@@ -4000,13 +4450,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -4030,7 +4480,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K19" t="n">
-        <v>0.17270788912579957</v>
+        <v>0.031982942430703626</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
@@ -4044,13 +4494,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -4074,7 +4524,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K20" t="n">
-        <v>0.021321961620469083</v>
+        <v>0.02771855010660981</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
@@ -4088,13 +4538,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -4118,7 +4568,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K21" t="n">
-        <v>0.023454157782515993</v>
+        <v>0.1257995735607676</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
@@ -4132,13 +4582,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -4162,7 +4612,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K22" t="n">
-        <v>0.042643923240938165</v>
+        <v>0.17270788912579957</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
@@ -4176,13 +4626,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -4206,7 +4656,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0255863539445629</v>
+        <v>0.021321961620469083</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
@@ -4220,13 +4670,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -4250,10 +4700,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K24" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.023454157782515993</v>
       </c>
       <c r="L24" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M24" t="e">
         <v>#NUM!</v>
@@ -4264,13 +4714,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -4294,7 +4744,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07889125799573561</v>
+        <v>0.042643923240938165</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
@@ -4308,13 +4758,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -4338,10 +4788,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02771855010660981</v>
+        <v>0.0255863539445629</v>
       </c>
       <c r="L26" t="n">
-        <v>1.1564823173178713E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M26" t="e">
         <v>#NUM!</v>
@@ -4352,13 +4802,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -4382,10 +4832,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0767590618336887</v>
+        <v>0.05543710021321962</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M27" t="e">
         <v>#NUM!</v>
@@ -4396,13 +4846,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -4426,7 +4876,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K28" t="n">
-        <v>0.14498933901918976</v>
+        <v>0.07889125799573561</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
@@ -4440,13 +4890,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -4470,7 +4920,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K29" t="n">
-        <v>0.3006396588486141</v>
+        <v>0.0767590618336887</v>
       </c>
       <c r="L29" t="n">
         <v>0.0</v>
@@ -4484,13 +4934,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -4514,7 +4964,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K30" t="n">
-        <v>0.021321961620469083</v>
+        <v>0.14498933901918976</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
@@ -4528,13 +4978,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -4558,10 +5008,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K31" t="n">
-        <v>0.04477611940298507</v>
+        <v>0.3006396588486141</v>
       </c>
       <c r="L31" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M31" t="e">
         <v>#NUM!</v>
@@ -4572,13 +5022,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -4602,7 +5052,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K32" t="n">
-        <v>0.05970149253731343</v>
+        <v>0.021321961620469083</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
@@ -4616,13 +5066,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -4646,10 +5096,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K33" t="n">
-        <v>0.023454157782515993</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M33" t="e">
         <v>#NUM!</v>
@@ -4660,13 +5110,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D34" t="e">
         <v>#NUM!</v>
@@ -4690,10 +5140,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K34" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="L34" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M34" t="e">
         <v>#NUM!</v>
@@ -4704,13 +5154,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D35" t="e">
         <v>#NUM!</v>
@@ -4734,10 +5184,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K35" t="n">
-        <v>0.053304904051172705</v>
+        <v>0.023454157782515993</v>
       </c>
       <c r="L35" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M35" t="e">
         <v>#NUM!</v>
@@ -4748,13 +5198,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D36" t="e">
         <v>#NUM!</v>
@@ -4778,10 +5228,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K36" t="n">
-        <v>0.04477611940298507</v>
+        <v>0.05543710021321962</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M36" t="e">
         <v>#NUM!</v>
@@ -4792,13 +5242,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -4822,10 +5272,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K37" t="n">
-        <v>0.31343283582089554</v>
+        <v>0.053304904051172705</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M37" t="e">
         <v>#NUM!</v>
@@ -4836,13 +5286,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
@@ -4866,10 +5316,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K38" t="n">
-        <v>0.02771855010660981</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="L38" t="n">
-        <v>1.1564823173178713E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M38" t="e">
         <v>#NUM!</v>
@@ -4880,13 +5330,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D39" t="e">
         <v>#NUM!</v>
@@ -4910,7 +5360,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K39" t="n">
-        <v>0.021321961620469083</v>
+        <v>0.31343283582089554</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
@@ -4924,13 +5374,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D40" t="e">
         <v>#NUM!</v>
@@ -4954,7 +5404,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K40" t="n">
-        <v>0.021321961620469083</v>
+        <v>0.02771855010660981</v>
       </c>
       <c r="L40" t="n">
         <v>0.0</v>
@@ -4968,13 +5418,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -5012,13 +5462,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -5056,13 +5506,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D43" t="e">
         <v>#NUM!</v>
@@ -5086,7 +5536,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K43" t="n">
-        <v>0.029850746268656716</v>
+        <v>0.021321961620469083</v>
       </c>
       <c r="L43" t="n">
         <v>0.0</v>
@@ -5100,13 +5550,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D44" t="e">
         <v>#NUM!</v>
@@ -5130,10 +5580,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K44" t="n">
-        <v>0.02771855010660981</v>
+        <v>0.029850746268656716</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0</v>
+        <v>1.1564823173178713E-18</v>
       </c>
       <c r="M44" t="e">
         <v>#NUM!</v>
@@ -5144,13 +5594,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D45" t="e">
         <v>#NUM!</v>
@@ -5174,7 +5624,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K45" t="n">
-        <v>0.046908315565031986</v>
+        <v>0.02771855010660981</v>
       </c>
       <c r="L45" t="n">
         <v>0.0</v>
@@ -5188,13 +5638,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -5218,10 +5668,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K46" t="n">
-        <v>0.10021321961620469</v>
+        <v>0.046908315565031986</v>
       </c>
       <c r="L46" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M46" t="e">
         <v>#NUM!</v>
@@ -5232,13 +5682,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D47" t="e">
         <v>#NUM!</v>
@@ -5262,10 +5712,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K47" t="n">
-        <v>0.042643923240938165</v>
+        <v>0.10021321961620469</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M47" t="e">
         <v>#NUM!</v>
@@ -5276,13 +5726,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -5306,10 +5756,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K48" t="n">
-        <v>0.07036247334754797</v>
+        <v>0.042643923240938165</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M48" t="e">
         <v>#NUM!</v>
@@ -5320,13 +5770,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D49" t="e">
         <v>#NUM!</v>
@@ -5350,7 +5800,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K49" t="n">
-        <v>0.42217484008528783</v>
+        <v>0.07036247334754797</v>
       </c>
       <c r="L49" t="n">
         <v>0.0</v>
@@ -5364,13 +5814,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D50" t="e">
         <v>#NUM!</v>
@@ -5394,10 +5844,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1279317697228145</v>
+        <v>0.10021321961620469</v>
       </c>
       <c r="L50" t="n">
-        <v>1.3084103822364792E-17</v>
+        <v>0.0</v>
       </c>
       <c r="M50" t="e">
         <v>#NUM!</v>
@@ -5408,13 +5858,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D51" t="e">
         <v>#NUM!</v>
@@ -5438,7 +5888,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K51" t="n">
-        <v>0.42643923240938164</v>
+        <v>0.3773987206823028</v>
       </c>
       <c r="L51" t="n">
         <v>0.0</v>
@@ -5452,13 +5902,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D52" t="e">
         <v>#NUM!</v>
@@ -5482,10 +5932,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4840085287846482</v>
+        <v>0.3326226012793177</v>
       </c>
       <c r="L52" t="n">
-        <v>0.00449506419355846</v>
+        <v>0.0</v>
       </c>
       <c r="M52" t="e">
         <v>#NUM!</v>
@@ -5496,13 +5946,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="D53" t="e">
         <v>#NUM!</v>
@@ -5526,10 +5976,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2046908315565032</v>
+        <v>0.4901918976545842</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0</v>
+        <v>0.01041895375289074</v>
       </c>
       <c r="M53" t="e">
         <v>#NUM!</v>
@@ -5543,10 +5993,10 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D54" t="e">
         <v>#NUM!</v>
@@ -5570,7 +6020,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2771855010660981</v>
+        <v>0.15565031982942432</v>
       </c>
       <c r="L54" t="n">
         <v>0.0</v>
@@ -5587,10 +6037,10 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D55" t="e">
         <v>#NUM!</v>
@@ -5614,7 +6064,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K55" t="n">
-        <v>0.31556503198294245</v>
+        <v>0.47761194029850745</v>
       </c>
       <c r="L55" t="n">
         <v>0.0</v>
@@ -5631,10 +6081,10 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D56" t="e">
         <v>#NUM!</v>
@@ -5658,7 +6108,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K56" t="n">
-        <v>0.09808102345415778</v>
+        <v>0.44136460554371004</v>
       </c>
       <c r="L56" t="n">
         <v>0.0</v>
@@ -5675,10 +6125,10 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D57" t="e">
         <v>#NUM!</v>
@@ -5702,7 +6152,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K57" t="n">
-        <v>0.2025586353944563</v>
+        <v>0.2302771855010661</v>
       </c>
       <c r="L57" t="n">
         <v>0.0</v>
@@ -5716,13 +6166,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -5746,7 +6196,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K58" t="n">
-        <v>0.07889125799573561</v>
+        <v>0.302771855010661</v>
       </c>
       <c r="L58" t="n">
         <v>0.0</v>
@@ -5760,13 +6210,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D59" t="e">
         <v>#NUM!</v>
@@ -5790,7 +6240,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1513859275053305</v>
+        <v>0.3347547974413646</v>
       </c>
       <c r="L59" t="n">
         <v>0.0</v>
@@ -5804,13 +6254,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D60" t="e">
         <v>#NUM!</v>
@@ -5834,7 +6284,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K60" t="n">
-        <v>0.4051172707889126</v>
+        <v>0.302771855010661</v>
       </c>
       <c r="L60" t="n">
         <v>0.0</v>
@@ -5848,13 +6298,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -5878,10 +6328,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K61" t="n">
-        <v>0.4899786780383795</v>
+        <v>0.485501066098081</v>
       </c>
       <c r="L61" t="n">
-        <v>0.017081243935522152</v>
+        <v>0.004719817403236383</v>
       </c>
       <c r="M61" t="e">
         <v>#NUM!</v>
@@ -5892,13 +6342,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D62" t="e">
         <v>#NUM!</v>
@@ -5922,10 +6372,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K62" t="n">
-        <v>0.17057569296375266</v>
+        <v>0.09808102345415778</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M62" t="e">
         <v>#NUM!</v>
@@ -5936,45 +6386,441 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.0767590618336887</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4.625929269271485E-18</v>
+      </c>
+      <c r="M63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N63" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.21961620469083157</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N64" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.07889125799573561</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N65" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.1513859275053305</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N66" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.4051172707889126</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N67" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.48464818763326223</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.008765375177438998</v>
+      </c>
+      <c r="M68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N68" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" t="s">
         <v>148</v>
       </c>
-      <c r="B63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E63" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F63" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G63" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H63" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I63" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J63" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K63" t="n">
+      <c r="D69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.17057569296375266</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N69" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.053304904051172705</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N70" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.042643923240938165</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N71" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K72" t="n">
         <v>0.0511727078891258</v>
       </c>
-      <c r="L63" t="n">
-        <v>2.3129646346357427E-18</v>
-      </c>
-      <c r="M63" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N63" t="e">
+      <c r="L72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N72" t="e">
         <v>#NUM!</v>
       </c>
     </row>

--- a/output/LUAD_statistics.xlsx
+++ b/output/LUAD_statistics.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="168">
   <si>
     <t>capri_bic.SELECTS</t>
   </si>
@@ -54,75 +54,78 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -153,105 +156,321 @@
     <t>33</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Pattern OR_STK11_TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDK4_TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS_TP53</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Del/Ins_Mutations KEAP1</t>
+  </si>
+  <si>
+    <t>Missense_Mutation CDKN2A</t>
+  </si>
+  <si>
+    <t>Nonsense_Mutation RB1</t>
+  </si>
+  <si>
+    <t>Amplification BRAF</t>
+  </si>
+  <si>
+    <t>Amplification CCND1</t>
+  </si>
+  <si>
+    <t>Amplification CCNE1</t>
+  </si>
+  <si>
+    <t>Amplification CDK4</t>
+  </si>
+  <si>
+    <t>Amplification EGFR</t>
+  </si>
+  <si>
+    <t>Amplification KRAS</t>
+  </si>
+  <si>
+    <t>Amplification MDM2</t>
+  </si>
+  <si>
+    <t>Amplification MET</t>
+  </si>
+  <si>
+    <t>Amplification PIK3CA</t>
+  </si>
+  <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
+    <t>Deletion RB1</t>
+  </si>
+  <si>
+    <t>Missense_Mutation ARID1A</t>
+  </si>
+  <si>
+    <t>Missense_Mutation ARID1B</t>
+  </si>
+  <si>
+    <t>Missense_Mutation ARID2</t>
+  </si>
+  <si>
+    <t>Missense_Mutation ATM</t>
+  </si>
+  <si>
+    <t>Missense_Mutation BRAF</t>
+  </si>
+  <si>
+    <t>Missense_Mutation EGFR</t>
+  </si>
+  <si>
+    <t>Missense_Mutation KEAP1</t>
+  </si>
+  <si>
     <t>Missense_Mutation KRAS</t>
   </si>
   <si>
-    <t>Missense_Mutation BRAF</t>
+    <t>Missense_Mutation MET</t>
+  </si>
+  <si>
+    <t>Missense_Mutation MTOR</t>
+  </si>
+  <si>
+    <t>Missense_Mutation NF1</t>
+  </si>
+  <si>
+    <t>Missense_Mutation NFE2L2</t>
+  </si>
+  <si>
+    <t>Missense_Mutation PIK3CA</t>
+  </si>
+  <si>
+    <t>Missense_Mutation SETD2</t>
+  </si>
+  <si>
+    <t>Missense_Mutation SMARCA4</t>
+  </si>
+  <si>
+    <t>Missense_Mutation STK11</t>
+  </si>
+  <si>
+    <t>Missense_Mutation TP53</t>
+  </si>
+  <si>
+    <t>Nonsense_Mutation ARID1A</t>
+  </si>
+  <si>
+    <t>Nonsense_Mutation ARID2</t>
+  </si>
+  <si>
+    <t>Nonsense_Mutation ATM</t>
+  </si>
+  <si>
+    <t>Nonsense_Mutation NF1</t>
+  </si>
+  <si>
+    <t>Nonsense_Mutation RBM10</t>
+  </si>
+  <si>
+    <t>Nonsense_Mutation SETD2</t>
+  </si>
+  <si>
+    <t>Nonsense_Mutation SMARCA4</t>
+  </si>
+  <si>
+    <t>Nonsense_Mutation STK11</t>
+  </si>
+  <si>
+    <t>Nonsense_Mutation TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_ARID2</t>
+  </si>
+  <si>
+    <t>Pattern OR_ATM</t>
+  </si>
+  <si>
+    <t>Pattern OR_BRAF</t>
+  </si>
+  <si>
+    <t>Pattern OR_BRAF_EGFR_KRAS_NF1</t>
+  </si>
+  <si>
+    <t>Pattern OR_BRAF_EGFR_KRAS_NF1_RIT1</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDKN2A</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_KRAS</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_KRAS_NF1</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_SMARCA4</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_STK11</t>
   </si>
   <si>
     <t>Pattern OR_KRAS</t>
   </si>
   <si>
-    <t>Amplification KRAS</t>
-  </si>
-  <si>
-    <t>Nonsense_Mutation TP53</t>
-  </si>
-  <si>
-    <t>Amplification CDK4</t>
-  </si>
-  <si>
-    <t>Del/Ins_Mutations EGFR</t>
-  </si>
-  <si>
-    <t>Missense_Mutation EGFR</t>
-  </si>
-  <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Missense_Mutation PIK3CA</t>
-  </si>
-  <si>
-    <t>Missense_Mutation ATM</t>
-  </si>
-  <si>
-    <t>Amplification MDM2</t>
-  </si>
-  <si>
-    <t>Amplification EGFR</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR</t>
-  </si>
-  <si>
-    <t>Amplification CCNE1</t>
-  </si>
-  <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
-    <t>Missense_Mutation KEAP1</t>
-  </si>
-  <si>
-    <t>Missense_Mutation NF1</t>
-  </si>
-  <si>
-    <t>Missense_Mutation SMARCA4</t>
-  </si>
-  <si>
-    <t>Missense_Mutation TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_BRAF_EGFR_KRAS_NF1</t>
-  </si>
-  <si>
-    <t>Pattern OR_BRAF_EGFR_KRAS_NF1_RIT1</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDK4_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_KRAS</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_KRAS_NF1</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_SMARCA4</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_STK11</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS_TP53</t>
-  </si>
-  <si>
     <t>Pattern OR_MDM2_TP53</t>
   </si>
   <si>
+    <t>Pattern OR_NF1</t>
+  </si>
+  <si>
+    <t>Pattern OR_PIK3CA</t>
+  </si>
+  <si>
     <t>Pattern OR_PIK3CA_STK11</t>
   </si>
   <si>
-    <t>Pattern OR_STK11_TP53</t>
+    <t>Pattern OR_SETD2</t>
+  </si>
+  <si>
+    <t>Pattern OR_SMARCA4</t>
+  </si>
+  <si>
+    <t>Pattern OR_STK11</t>
   </si>
   <si>
     <t>Pattern OR_TP53</t>
   </si>
   <si>
+    <t>Pattern XOR_ARID1A</t>
+  </si>
+  <si>
+    <t>Pattern XOR_KEAP1</t>
+  </si>
+  <si>
+    <t>Pattern XOR_MET</t>
+  </si>
+  <si>
+    <t>Pattern XOR_RB1</t>
+  </si>
+  <si>
+    <t>Pattern XOR_RBM10</t>
+  </si>
+  <si>
     <t>capri_aic.SELECTS</t>
   </si>
   <si>
@@ -291,7 +510,13 @@
     <t>capri_aic.SD.POSTERR</t>
   </si>
   <si>
-    <t>34</t>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Del/Ins_Mutations RBM10</t>
   </si>
 </sst>
 </file>
@@ -389,40 +614,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="D2" t="n">
-        <v>141.0</v>
+        <v>279.0</v>
       </c>
       <c r="E2" t="n">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.08255730457327E-5</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>7.52343631600598E-4</v>
+        <v>0.0318012848103768</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0140980676882453</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.08017057569296375</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0020598971920667273</v>
+      <c r="K2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L2" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M2" t="n">
-        <v>0.070362473347548</v>
+        <v>0.0255863539445629</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -433,43 +658,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D3" t="n">
-        <v>37.0</v>
+        <v>242.0</v>
       </c>
       <c r="E3" t="n">
-        <v>26.0</v>
+        <v>13.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0076851904435617</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0025710918098651</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0373805643444922</v>
+        <v>0.0124042560537172</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.02771855010660981</v>
       </c>
       <c r="L3" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>1.1564823173178713E-18</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0554371002132196</v>
+        <v>0.0277185501066098</v>
       </c>
       <c r="N3" t="n">
-        <v>4.00617226329909E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,43 +702,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D4" t="n">
-        <v>157.0</v>
+        <v>327.0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.0</v>
+        <v>10.0</v>
       </c>
       <c r="F4" t="n">
-        <v>8.98112524953542E-5</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="G4" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>0.0318012848103768</v>
       </c>
       <c r="H4" t="n">
-        <v>2.91648543766684E-4</v>
+        <v>0.0317970902514371</v>
       </c>
       <c r="I4" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.021321961620469083</v>
       </c>
       <c r="L4" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0554371002132196</v>
+        <v>0.0213219616204691</v>
       </c>
       <c r="N4" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -521,43 +746,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0512083318985354</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.41254411223451E-6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.76738142869211E-5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100.0</v>
+        <v>89</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J5" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06183368869936034</v>
+        <v>0.023454157782515993</v>
       </c>
       <c r="L5" t="n">
-        <v>3.271025955591198E-18</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.0618336886993603</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N5" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="6">
@@ -565,43 +790,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4.36432415062108E-4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.25016778886748E-4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0126499387888327</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100.0</v>
+        <v>90</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08017057569296375</v>
+        <v>0.04051172707889126</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0020598971920667273</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.070362473347548</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="M6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N6" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="7">
@@ -609,43 +834,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.00921889121177242</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8.9307244186841E-5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.55042824234634E-9</v>
-      </c>
-      <c r="I7" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100.0</v>
+        <v>91</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J7" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K7" t="n">
         <v>0.05543710021321962</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.055863539445629</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.99012838711693E-4</v>
+        <v>3.271025955591198E-18</v>
+      </c>
+      <c r="M7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N7" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="8">
@@ -653,43 +878,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0906911037794973</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9.08255730457327E-5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.68283658466976E-5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100.0</v>
+        <v>92</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06119402985074626</v>
+        <v>0.06183368869936034</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0014391227243295353</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.0597014925373134</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
+      </c>
+      <c r="M8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N8" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9">
@@ -697,43 +922,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.00107172535674148</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5.41254411223451E-6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.30863110048605E-4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100.0</v>
+        <v>93</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J9" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06119402985074626</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0014391227243295353</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.0597014925373134</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N9" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="10">
@@ -741,43 +966,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8.98112524953542E-5</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5.41254411223451E-6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7.15544633702017E-4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100.0</v>
+        <v>94</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J10" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0767590618336887</v>
+        <v>0.07036247334754797</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
-      <c r="M10" t="n">
-        <v>0.0767590618336887</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.0</v>
+      <c r="M10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N10" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="11">
@@ -785,43 +1010,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0313120436535681</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.41254411223451E-6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.00123497272542362</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100.0</v>
+        <v>95</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J11" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K11" t="n">
-        <v>0.15565031982942432</v>
+        <v>0.05543710021321962</v>
       </c>
       <c r="L11" t="n">
         <v>0.0</v>
       </c>
-      <c r="M11" t="n">
-        <v>0.155650319829424</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.0</v>
+      <c r="M11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N11" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="12">
@@ -829,10 +1054,10 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D12" t="e">
         <v>#NUM!</v>
@@ -856,7 +1081,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.031982942430703626</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
@@ -873,10 +1098,10 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D13" t="e">
         <v>#NUM!</v>
@@ -900,7 +1125,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1257995735607676</v>
+        <v>0.02771855010660981</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
@@ -917,10 +1142,10 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="D14" t="e">
         <v>#NUM!</v>
@@ -944,10 +1169,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K14" t="n">
-        <v>0.17270788912579957</v>
+        <v>0.1257995735607676</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0</v>
+        <v>9.25185853854297E-18</v>
       </c>
       <c r="M14" t="e">
         <v>#NUM!</v>
@@ -961,10 +1186,10 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="D15" t="e">
         <v>#NUM!</v>
@@ -988,7 +1213,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07889125799573561</v>
+        <v>0.17270788912579957</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
@@ -1005,10 +1230,10 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D16" t="e">
         <v>#NUM!</v>
@@ -1032,7 +1257,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K16" t="n">
-        <v>0.14498933901918976</v>
+        <v>0.021321961620469083</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
@@ -1049,10 +1274,10 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -1076,7 +1301,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3006396588486141</v>
+        <v>0.023454157782515993</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
@@ -1093,10 +1318,10 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -1120,7 +1345,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05970149253731343</v>
+        <v>0.042643923240938165</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
@@ -1137,10 +1362,10 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -1164,10 +1389,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K19" t="n">
-        <v>0.053304904051172705</v>
+        <v>0.0255863539445629</v>
       </c>
       <c r="L19" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M19" t="e">
         <v>#NUM!</v>
@@ -1181,10 +1406,10 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -1208,7 +1433,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K20" t="n">
-        <v>0.31343283582089554</v>
+        <v>0.05543710021321962</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
@@ -1225,10 +1450,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1252,7 +1477,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K21" t="n">
-        <v>0.10021321961620469</v>
+        <v>0.07889125799573561</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
@@ -1269,10 +1494,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -1296,7 +1521,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4200426439232409</v>
+        <v>0.0767590618336887</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
@@ -1313,10 +1538,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -1340,7 +1565,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K23" t="n">
-        <v>0.373134328358209</v>
+        <v>0.14498933901918976</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
@@ -1357,10 +1582,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -1384,10 +1609,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4927505330490405</v>
+        <v>0.3006396588486141</v>
       </c>
       <c r="L24" t="n">
-        <v>0.013761431819462742</v>
+        <v>0.0</v>
       </c>
       <c r="M24" t="e">
         <v>#NUM!</v>
@@ -1401,10 +1626,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -1428,7 +1653,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K25" t="n">
-        <v>0.47761194029850745</v>
+        <v>0.021321961620469083</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
@@ -1445,10 +1670,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -1472,10 +1697,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" t="n">
-        <v>0.48422174840085286</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="L26" t="n">
-        <v>0.014159452209709168</v>
+        <v>0.0</v>
       </c>
       <c r="M26" t="e">
         <v>#NUM!</v>
@@ -1489,10 +1714,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1516,10 +1741,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2046908315565032</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0</v>
+        <v>4.006172263299091E-18</v>
       </c>
       <c r="M27" t="e">
         <v>#NUM!</v>
@@ -1533,10 +1758,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -1560,7 +1785,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K28" t="n">
-        <v>0.21535181236673773</v>
+        <v>0.023454157782515993</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
@@ -1577,10 +1802,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -1604,10 +1829,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K29" t="n">
-        <v>0.3347547974413646</v>
+        <v>0.05543710021321962</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M29" t="e">
         <v>#NUM!</v>
@@ -1621,10 +1846,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -1648,7 +1873,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K30" t="n">
-        <v>0.302771855010661</v>
+        <v>0.03411513859275053</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
@@ -1665,10 +1890,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -1692,10 +1917,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K31" t="n">
-        <v>0.48891257995735604</v>
+        <v>0.053304904051172705</v>
       </c>
       <c r="L31" t="n">
-        <v>0.015507971467776705</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M31" t="e">
         <v>#NUM!</v>
@@ -1709,10 +1934,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -1736,10 +1961,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K32" t="n">
-        <v>0.11300639658848614</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="L32" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M32" t="e">
         <v>#NUM!</v>
@@ -1753,10 +1978,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -1780,7 +2005,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K33" t="n">
-        <v>0.47121535181236673</v>
+        <v>0.31343283582089554</v>
       </c>
       <c r="L33" t="n">
         <v>0.0</v>
@@ -1797,42 +2022,1626 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.02771855010660981</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N34" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.021321961620469083</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N35" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.021321961620469083</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N36" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.021321961620469083</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N37" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.029850746268656716</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.635512977795599E-18</v>
+      </c>
+      <c r="M38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N38" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.02771855010660981</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N39" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.02771855010660981</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N40" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.046908315565031986</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N41" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.10021321961620469</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N42" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.042643923240938165</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N43" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
         <v>55</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.07036247334754797</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N44" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.10021321961620469</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N45" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3773987206823028</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N46" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.3326226012793177</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N47" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.49296375266524517</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.019302624246502302</v>
+      </c>
+      <c r="M48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N48" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.19402985074626866</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N49" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.15565031982942432</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N50" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.47761194029850745</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N51" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.44136460554371004</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N52" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2302771855010661</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N53" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.302771855010661</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N54" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3347547974413646</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N55" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.302771855010661</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N56" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.4859275053304904</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.006068336661303939</v>
+      </c>
+      <c r="M57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N57" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.09808102345415778</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N58" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E59" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F59" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G59" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H59" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I59" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J59" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.0767590618336887</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M59" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N59" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.21961620469083157</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N60" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.057569296375266525</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2.3129646346357427E-18</v>
+      </c>
+      <c r="M61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N61" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.07889125799573561</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N62" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.1513859275053305</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N63" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.4051172707889126</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N64" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.48187633262260127</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N65" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0511727078891258</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2.3129646346357427E-18</v>
+      </c>
+      <c r="M66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N66" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
         <v>78</v>
       </c>
-      <c r="D34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.4878464818763326</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.013552450816264982</v>
-      </c>
-      <c r="M34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N34" t="e">
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.17057569296375266</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N67" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.053304904051172705</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3.271025955591198E-18</v>
+      </c>
+      <c r="M68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N68" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.042643923240938165</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N69" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.0511727078891258</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N70" t="e">
         <v>#NUM!</v>
       </c>
     </row>
@@ -1852,84 +3661,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="K1" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="L1" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="M1" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="N1" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="D2" t="n">
-        <v>141.0</v>
+        <v>279.0</v>
       </c>
       <c r="E2" t="n">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.08255730457327E-5</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>7.52343631600598E-4</v>
+        <v>0.0318012848103768</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0140980676882453</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.08017057569296375</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.0020598971920667273</v>
+      <c r="K2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L2" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M2" t="n">
-        <v>0.070362473347548</v>
+        <v>0.0255863539445629</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -1937,84 +3746,84 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D3" t="n">
-        <v>37.0</v>
+        <v>242.0</v>
       </c>
       <c r="E3" t="n">
         <v>26.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0076851904435617</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0025710918098651</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0373805643444922</v>
+        <v>0.0485467857697238</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K3" t="n">
         <v>0.05543710021321962</v>
       </c>
       <c r="L3" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M3" t="n">
         <v>0.0554371002132196</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D4" t="n">
-        <v>157.0</v>
+        <v>11.0</v>
       </c>
       <c r="E4" t="n">
         <v>26.0</v>
       </c>
       <c r="F4" t="n">
-        <v>8.98112524953542E-5</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="H4" t="n">
-        <v>2.91648543766684E-4</v>
+        <v>0.0671688978580581</v>
       </c>
       <c r="I4" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K4" t="n">
         <v>0.05543710021321962</v>
       </c>
       <c r="L4" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M4" t="n">
         <v>0.0554371002132196</v>
@@ -2025,87 +3834,87 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="D5" t="n">
-        <v>33.0</v>
+        <v>26.0</v>
       </c>
       <c r="E5" t="n">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0512083318985354</v>
+        <v>0.0360990988508288</v>
       </c>
       <c r="G5" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>0.0360990988508288</v>
       </c>
       <c r="H5" t="n">
-        <v>3.76738142869211E-5</v>
+        <v>0.15187893000577601</v>
       </c>
       <c r="I5" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.06183368869936034</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L5" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0618336886993603</v>
+        <v>0.0213219616204691</v>
       </c>
       <c r="N5" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="D6" t="n">
-        <v>47.0</v>
+        <v>16.0</v>
       </c>
       <c r="E6" t="n">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.36432415062108E-4</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="G6" t="n">
-        <v>5.25016778886748E-4</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0126499387888327</v>
+        <v>0.0894072382163834</v>
       </c>
       <c r="I6" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.08017057569296375</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.0020598971920667273</v>
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L6" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M6" t="n">
-        <v>0.070362473347548</v>
+        <v>0.0213219616204691</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -2113,175 +3922,175 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D7" t="n">
-        <v>29.0</v>
+        <v>242.0</v>
       </c>
       <c r="E7" t="n">
-        <v>26.0</v>
+        <v>13.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00921889121177242</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="G7" t="n">
-        <v>8.9307244186841E-5</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55042824234634E-9</v>
+        <v>0.0124042560537172</v>
       </c>
       <c r="I7" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.02771855010660981</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0</v>
+        <v>1.1564823173178713E-18</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0554371002132196</v>
+        <v>0.0277185501066098</v>
       </c>
       <c r="N7" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="D8" t="n">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="E8" t="n">
-        <v>28.0</v>
+        <v>16.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0906911037794973</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
-        <v>9.08255730457327E-5</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="H8" t="n">
-        <v>1.68283658466976E-5</v>
+        <v>3.95644774502605E-4</v>
       </c>
       <c r="I8" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06119402985074626</v>
+        <v>0.03411513859275053</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0014391227243295353</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0597014925373134</v>
+        <v>0.0341151385927505</v>
       </c>
       <c r="N8" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D9" t="n">
-        <v>36.0</v>
+        <v>327.0</v>
       </c>
       <c r="E9" t="n">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00107172535674148</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="G9" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>0.0318012848103768</v>
       </c>
       <c r="H9" t="n">
-        <v>2.30863110048605E-4</v>
+        <v>0.0317970902514371</v>
       </c>
       <c r="I9" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06119402985074626</v>
+        <v>0.021321961620469083</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0014391227243295353</v>
+        <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0597014925373134</v>
+        <v>0.0213219616204691</v>
       </c>
       <c r="N9" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="D10" t="n">
-        <v>81.0</v>
+        <v>68.0</v>
       </c>
       <c r="E10" t="n">
-        <v>36.0</v>
+        <v>13.0</v>
       </c>
       <c r="F10" t="n">
-        <v>8.98112524953542E-5</v>
+        <v>0.05</v>
       </c>
       <c r="G10" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="H10" t="n">
-        <v>7.15544633702017E-4</v>
+        <v>0.0108225443105317</v>
       </c>
       <c r="I10" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0767590618336887</v>
+        <v>0.02771855010660981</v>
       </c>
       <c r="L10" t="n">
         <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0767590618336887</v>
+        <v>0.0277185501066098</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -2289,72 +4098,72 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="D11" t="n">
-        <v>81.0</v>
+        <v>13.0</v>
       </c>
       <c r="E11" t="n">
-        <v>73.0</v>
+        <v>91.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0313120436535681</v>
+        <v>1.0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00123497272542362</v>
+        <v>0.00673504031567014</v>
       </c>
       <c r="I11" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.15565031982942432</v>
+        <v>0.19402985074626866</v>
       </c>
       <c r="L11" t="n">
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.155650319829424</v>
+        <v>0.198720682302772</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0</v>
+        <v>0.00386680042892265</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="D12" t="n">
-        <v>226.0</v>
+        <v>11.0</v>
       </c>
       <c r="E12" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="F12" t="n">
-        <v>8.9307244186841E-5</v>
+        <v>1.0</v>
       </c>
       <c r="G12" t="n">
-        <v>3.78878087856416E-5</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0217618282215521</v>
+        <v>0.00177891004352494</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -2363,42 +4172,42 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.057569296375266525</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0554371002132196</v>
+        <v>0.0575692963752665</v>
       </c>
       <c r="N12" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>3.2710259555912E-18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="D13" t="n">
-        <v>242.0</v>
+        <v>26.0</v>
       </c>
       <c r="E13" t="n">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="F13" t="n">
-        <v>9.03173604037676E-5</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="G13" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="H13" t="n">
-        <v>8.46743883599597E-5</v>
+        <v>0.0512586261506916</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -2407,115 +4216,115 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06119402985074626</v>
+        <v>0.0511727078891258</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0014391227243295353</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0597014925373134</v>
+        <v>0.0511727078891258</v>
       </c>
       <c r="N13" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="n">
-        <v>157.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9.03173604037676E-5</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5.41254411223451E-6</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.00290455751166806</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.0</v>
+        <v>89</v>
+      </c>
+      <c r="D14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J14" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1257995735607676</v>
+        <v>0.023454157782515993</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
-      <c r="M14" t="n">
-        <v>0.125799573560768</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.0</v>
+      <c r="M14" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N14" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.439666465454077</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5.41254411223451E-6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0167184004726378</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.0</v>
+        <v>90</v>
+      </c>
+      <c r="D15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J15" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05970149253731343</v>
+        <v>0.04051172707889126</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
       </c>
-      <c r="M15" t="n">
-        <v>0.0597014925373134</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.00617226329909E-18</v>
+      <c r="M15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N15" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="D16" t="e">
         <v>#NUM!</v>
@@ -2539,7 +4348,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K16" t="n">
-        <v>0.17270788912579957</v>
+        <v>0.06183368869936034</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
@@ -2553,13 +4362,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="D17" t="e">
         <v>#NUM!</v>
@@ -2583,7 +4392,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07889125799573561</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
@@ -2597,13 +4406,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -2627,7 +4436,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K18" t="n">
-        <v>0.14498933901918976</v>
+        <v>0.07036247334754797</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
@@ -2641,13 +4450,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -2671,7 +4480,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3006396588486141</v>
+        <v>0.031982942430703626</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
@@ -2685,13 +4494,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -2715,10 +4524,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K20" t="n">
-        <v>0.053304904051172705</v>
+        <v>0.02771855010660981</v>
       </c>
       <c r="L20" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M20" t="e">
         <v>#NUM!</v>
@@ -2729,13 +4538,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -2759,10 +4568,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K21" t="n">
-        <v>0.31343283582089554</v>
+        <v>0.1257995735607676</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0</v>
+        <v>9.25185853854297E-18</v>
       </c>
       <c r="M21" t="e">
         <v>#NUM!</v>
@@ -2773,13 +4582,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -2803,7 +4612,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K22" t="n">
-        <v>0.10021321961620469</v>
+        <v>0.17270788912579957</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
@@ -2817,13 +4626,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -2847,7 +4656,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4200426439232409</v>
+        <v>0.021321961620469083</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
@@ -2861,13 +4670,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -2891,7 +4700,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K24" t="n">
-        <v>0.373134328358209</v>
+        <v>0.023454157782515993</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
@@ -2905,13 +4714,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -2935,10 +4744,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4927505330490405</v>
+        <v>0.042643923240938165</v>
       </c>
       <c r="L25" t="n">
-        <v>0.013761431819462742</v>
+        <v>0.0</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>
@@ -2949,13 +4758,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -2979,7 +4788,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" t="n">
-        <v>0.47761194029850745</v>
+        <v>0.0255863539445629</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
@@ -2993,13 +4802,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -3023,10 +4832,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K27" t="n">
-        <v>0.48422174840085286</v>
+        <v>0.05543710021321962</v>
       </c>
       <c r="L27" t="n">
-        <v>0.014159452209709168</v>
+        <v>0.0</v>
       </c>
       <c r="M27" t="e">
         <v>#NUM!</v>
@@ -3037,13 +4846,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -3067,7 +4876,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2046908315565032</v>
+        <v>0.07889125799573561</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
@@ -3081,13 +4890,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -3111,7 +4920,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K29" t="n">
-        <v>0.21535181236673773</v>
+        <v>0.0767590618336887</v>
       </c>
       <c r="L29" t="n">
         <v>0.0</v>
@@ -3125,13 +4934,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -3155,7 +4964,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3347547974413646</v>
+        <v>0.14498933901918976</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
@@ -3169,13 +4978,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -3199,7 +5008,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K31" t="n">
-        <v>0.302771855010661</v>
+        <v>0.3006396588486141</v>
       </c>
       <c r="L31" t="n">
         <v>0.0</v>
@@ -3213,13 +5022,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -3243,10 +5052,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K32" t="n">
-        <v>0.48891257995735604</v>
+        <v>0.021321961620469083</v>
       </c>
       <c r="L32" t="n">
-        <v>0.015507971467776705</v>
+        <v>0.0</v>
       </c>
       <c r="M32" t="e">
         <v>#NUM!</v>
@@ -3257,13 +5066,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -3287,10 +5096,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K33" t="n">
-        <v>0.11300639658848614</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="L33" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M33" t="e">
         <v>#NUM!</v>
@@ -3301,13 +5110,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D34" t="e">
         <v>#NUM!</v>
@@ -3331,10 +5140,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K34" t="n">
-        <v>0.47121535181236673</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0</v>
+        <v>4.006172263299091E-18</v>
       </c>
       <c r="M34" t="e">
         <v>#NUM!</v>
@@ -3345,45 +5154,1673 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.023454157782515993</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N35" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.05543710021321962</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.271025955591198E-18</v>
+      </c>
+      <c r="M36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N36" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.053304904051172705</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2.3129646346357427E-18</v>
+      </c>
+      <c r="M37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N37" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.04477611940298507</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2.3129646346357427E-18</v>
+      </c>
+      <c r="M38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N38" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.31343283582089554</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N39" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.02771855010660981</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N40" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.021321961620469083</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N41" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.021321961620469083</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N42" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.021321961620469083</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N43" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.029850746268656716</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.635512977795599E-18</v>
+      </c>
+      <c r="M44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N44" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.02771855010660981</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N45" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.046908315565031986</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N46" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
         <v>55</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.10021321961620469</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N47" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.042643923240938165</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N48" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.07036247334754797</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N49" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.10021321961620469</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N50" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.3773987206823028</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N51" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.3326226012793177</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N52" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.49296375266524517</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.019302624246502302</v>
+      </c>
+      <c r="M53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N53" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.15565031982942432</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N54" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.47761194029850745</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M55" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N55" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.44136460554371004</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N56" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2302771855010661</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M57" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N57" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.302771855010661</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M58" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N58" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E59" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F59" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G59" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H59" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I59" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J59" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3347547974413646</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M59" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N59" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.302771855010661</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N60" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.4859275053304904</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.006068336661303939</v>
+      </c>
+      <c r="M61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N61" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.09808102345415778</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N62" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.0767590618336887</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N63" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.21961620469083157</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N64" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.07889125799573561</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N65" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.1513859275053305</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N66" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.4051172707889126</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N67" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
         <v>78</v>
       </c>
-      <c r="D35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.4878464818763326</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.013552450816264982</v>
-      </c>
-      <c r="M35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N35" t="e">
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.48187633262260127</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N68" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.17057569296375266</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N69" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.053304904051172705</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3.271025955591198E-18</v>
+      </c>
+      <c r="M70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N70" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.042643923240938165</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N71" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.0511727078891258</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N72" t="e">
         <v>#NUM!</v>
       </c>
     </row>

--- a/output/LUAD_statistics.xlsx
+++ b/output/LUAD_statistics.xlsx
@@ -54,15 +54,15 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -261,25 +261,25 @@
     <t>69</t>
   </si>
   <si>
+    <t>Pattern OR_KRAS_TP53</t>
+  </si>
+  <si>
     <t>Pattern OR_STK11_TP53</t>
   </si>
   <si>
     <t>Pattern OR_CDK4_TP53</t>
   </si>
   <si>
-    <t>Pattern OR_KRAS_TP53</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Nonsense_Mutation RB1</t>
+  </si>
+  <si>
     <t>Del/Ins_Mutations KEAP1</t>
   </si>
   <si>
     <t>Missense_Mutation CDKN2A</t>
-  </si>
-  <si>
-    <t>Nonsense_Mutation RB1</t>
   </si>
   <si>
     <t>Amplification BRAF</t>
@@ -620,19 +620,19 @@
         <v>86</v>
       </c>
       <c r="D2" t="n">
-        <v>279.0</v>
+        <v>327.0</v>
       </c>
       <c r="E2" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="G2" t="n">
         <v>0.0318012848103768</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0.0317970902514371</v>
       </c>
       <c r="I2" t="n">
         <v>100.0</v>
@@ -640,14 +640,14 @@
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
-      <c r="K2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" t="e">
-        <v>#NUM!</v>
+      <c r="K2" t="n">
+        <v>0.021321961620469083</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0255863539445629</v>
+        <v>0.0213219616204691</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -664,34 +664,34 @@
         <v>87</v>
       </c>
       <c r="D3" t="n">
-        <v>242.0</v>
+        <v>279.0</v>
       </c>
       <c r="E3" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0382612502375296</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0382612502375296</v>
+        <v>0.0318012848103768</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0124042560537172</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.02771855010660981</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.1564823173178713E-18</v>
+      <c r="K3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L3" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0277185501066098</v>
+        <v>0.0255863539445629</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -708,19 +708,19 @@
         <v>88</v>
       </c>
       <c r="D4" t="n">
-        <v>327.0</v>
+        <v>242.0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="F4" t="n">
         <v>0.0382612502375296</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0318012848103768</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0317970902514371</v>
+        <v>0.0124042560537172</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -729,16 +729,16 @@
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.021321961620469083</v>
+        <v>0.02771855010660981</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>1.1564823173178713E-18</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0213219616204691</v>
+        <v>0.0277185501066098</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>1.15648231731787E-18</v>
       </c>
     </row>
     <row r="5">
@@ -864,7 +864,7 @@
         <v>0.05543710021321962</v>
       </c>
       <c r="L7" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M7" t="e">
         <v>#NUM!</v>
@@ -908,7 +908,7 @@
         <v>0.06183368869936034</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M8" t="e">
         <v>#NUM!</v>
@@ -1172,7 +1172,7 @@
         <v>0.1257995735607676</v>
       </c>
       <c r="L14" t="n">
-        <v>9.25185853854297E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M14" t="e">
         <v>#NUM!</v>
@@ -1392,7 +1392,7 @@
         <v>0.0255863539445629</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0</v>
+        <v>1.1564823173178713E-18</v>
       </c>
       <c r="M19" t="e">
         <v>#NUM!</v>
@@ -1436,7 +1436,7 @@
         <v>0.05543710021321962</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M20" t="e">
         <v>#NUM!</v>
@@ -1700,7 +1700,7 @@
         <v>0.04477611940298507</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M26" t="e">
         <v>#NUM!</v>
@@ -1744,7 +1744,7 @@
         <v>0.05970149253731343</v>
       </c>
       <c r="L27" t="n">
-        <v>4.006172263299091E-18</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M27" t="e">
         <v>#NUM!</v>
@@ -1964,7 +1964,7 @@
         <v>0.04477611940298507</v>
       </c>
       <c r="L32" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M32" t="e">
         <v>#NUM!</v>
@@ -2228,7 +2228,7 @@
         <v>0.029850746268656716</v>
       </c>
       <c r="L38" t="n">
-        <v>1.635512977795599E-18</v>
+        <v>1.1564823173178713E-18</v>
       </c>
       <c r="M38" t="e">
         <v>#NUM!</v>
@@ -2404,7 +2404,7 @@
         <v>0.10021321961620469</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M42" t="e">
         <v>#NUM!</v>
@@ -2641,7 +2641,7 @@
         <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -2665,10 +2665,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K48" t="n">
-        <v>0.49296375266524517</v>
+        <v>0.48848614072494667</v>
       </c>
       <c r="L48" t="n">
-        <v>0.019302624246502302</v>
+        <v>0.009768365059575655</v>
       </c>
       <c r="M48" t="e">
         <v>#NUM!</v>
@@ -2797,10 +2797,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K51" t="n">
-        <v>0.47761194029850745</v>
+        <v>0.47995735607675905</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0</v>
+        <v>0.007416855919371459</v>
       </c>
       <c r="M51" t="e">
         <v>#NUM!</v>
@@ -2888,7 +2888,7 @@
         <v>0.2302771855010661</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0</v>
+        <v>9.25185853854297E-18</v>
       </c>
       <c r="M53" t="e">
         <v>#NUM!</v>
@@ -2993,7 +2993,7 @@
         <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D56" t="e">
         <v>#NUM!</v>
@@ -3061,10 +3061,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4859275053304904</v>
+        <v>0.5002132196162047</v>
       </c>
       <c r="L57" t="n">
-        <v>0.006068336661303939</v>
+        <v>0.025943180338795835</v>
       </c>
       <c r="M57" t="e">
         <v>#NUM!</v>
@@ -3240,7 +3240,7 @@
         <v>0.057569296375266525</v>
       </c>
       <c r="L61" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M61" t="e">
         <v>#NUM!</v>
@@ -3345,7 +3345,7 @@
         <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D64" t="e">
         <v>#NUM!</v>
@@ -3413,10 +3413,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K65" t="n">
-        <v>0.48187633262260127</v>
+        <v>0.48656716417910445</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0</v>
+        <v>0.01109288586503294</v>
       </c>
       <c r="M65" t="e">
         <v>#NUM!</v>
@@ -3460,7 +3460,7 @@
         <v>0.0511727078891258</v>
       </c>
       <c r="L66" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M66" t="e">
         <v>#NUM!</v>
@@ -3548,7 +3548,7 @@
         <v>0.053304904051172705</v>
       </c>
       <c r="L68" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M68" t="e">
         <v>#NUM!</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -3711,19 +3711,19 @@
         <v>86</v>
       </c>
       <c r="D2" t="n">
-        <v>279.0</v>
+        <v>327.0</v>
       </c>
       <c r="E2" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="G2" t="n">
         <v>0.0318012848103768</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0.0317970902514371</v>
       </c>
       <c r="I2" t="n">
         <v>100.0</v>
@@ -3731,14 +3731,14 @@
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
-      <c r="K2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L2" t="e">
-        <v>#NUM!</v>
+      <c r="K2" t="n">
+        <v>0.021321961620469083</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0255863539445629</v>
+        <v>0.0213219616204691</v>
       </c>
       <c r="N2" t="n">
         <v>0.0</v>
@@ -3746,72 +3746,72 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" t="n">
-        <v>242.0</v>
+        <v>279.0</v>
       </c>
       <c r="E3" t="n">
-        <v>26.0</v>
+        <v>12.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0382612502375296</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0382612502375296</v>
+        <v>0.0318012848103768</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0485467857697238</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.05543710021321962</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>100.0</v>
+      </c>
+      <c r="K3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L3" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0554371002132196</v>
+        <v>0.0255863539445629</v>
       </c>
       <c r="N3" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n">
-        <v>11.0</v>
+        <v>242.0</v>
       </c>
       <c r="E4" t="n">
         <v>26.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="G4" t="n">
         <v>0.0382612502375296</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0671688978580581</v>
+        <v>0.0485467857697238</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -3823,7 +3823,7 @@
         <v>0.05543710021321962</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M4" t="n">
         <v>0.0554371002132196</v>
@@ -3834,28 +3834,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="D5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E5" t="n">
         <v>26.0</v>
       </c>
-      <c r="E5" t="n">
-        <v>10.0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0.0360990988508288</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0360990988508288</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="H5" t="n">
-        <v>0.15187893000577601</v>
+        <v>0.0671688978580581</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -3863,14 +3863,14 @@
       <c r="J5" t="n">
         <v>0.0</v>
       </c>
-      <c r="K5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L5" t="e">
-        <v>#NUM!</v>
+      <c r="K5" t="n">
+        <v>0.05543710021321962</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0213219616204691</v>
+        <v>0.0554371002132196</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -3878,28 +3878,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
         <v>167</v>
       </c>
       <c r="D6" t="n">
-        <v>16.0</v>
+        <v>26.0</v>
       </c>
       <c r="E6" t="n">
         <v>10.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0382612502375296</v>
+        <v>0.0360990988508288</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0382612502375296</v>
+        <v>0.0360990988508288</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0894072382163834</v>
+        <v>0.15187893000577601</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -3922,19 +3922,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="D7" t="n">
-        <v>242.0</v>
+        <v>16.0</v>
       </c>
       <c r="E7" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0382612502375296</v>
@@ -3943,22 +3943,22 @@
         <v>0.0382612502375296</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0124042560537172</v>
+        <v>0.0894072382163834</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.02771855010660981</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.1564823173178713E-18</v>
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="L7" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0277185501066098</v>
+        <v>0.0213219616204691</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -3966,87 +3966,87 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D8" t="n">
-        <v>11.0</v>
+        <v>242.0</v>
       </c>
       <c r="E8" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0</v>
+        <v>0.0382612502375296</v>
       </c>
       <c r="G8" t="n">
         <v>0.0382612502375296</v>
       </c>
       <c r="H8" t="n">
-        <v>3.95644774502605E-4</v>
+        <v>0.0124042560537172</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03411513859275053</v>
+        <v>0.02771855010660981</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0</v>
+        <v>1.1564823173178713E-18</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0341151385927505</v>
+        <v>0.0277185501066098</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0</v>
+        <v>1.15648231731787E-18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D9" t="n">
-        <v>327.0</v>
+        <v>11.0</v>
       </c>
       <c r="E9" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="F9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0382612502375296</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.0318012848103768</v>
-      </c>
       <c r="H9" t="n">
-        <v>0.0317970902514371</v>
+        <v>3.95644774502605E-4</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.021321961620469083</v>
+        <v>0.03411513859275053</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0213219616204691</v>
+        <v>0.0341151385927505</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -4134,10 +4134,10 @@
         <v>0.0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.198720682302772</v>
+        <v>0.201492537313433</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00386680042892265</v>
+        <v>0.00365871717874449</v>
       </c>
     </row>
     <row r="12">
@@ -4175,13 +4175,13 @@
         <v>0.057569296375266525</v>
       </c>
       <c r="L12" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M12" t="n">
         <v>0.0575692963752665</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -4219,7 +4219,7 @@
         <v>0.0511727078891258</v>
       </c>
       <c r="L13" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M13" t="n">
         <v>0.0511727078891258</v>
@@ -4351,7 +4351,7 @@
         <v>0.06183368869936034</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M16" t="e">
         <v>#NUM!</v>
@@ -4571,7 +4571,7 @@
         <v>0.1257995735607676</v>
       </c>
       <c r="L21" t="n">
-        <v>9.25185853854297E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M21" t="e">
         <v>#NUM!</v>
@@ -4791,7 +4791,7 @@
         <v>0.0255863539445629</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0</v>
+        <v>1.1564823173178713E-18</v>
       </c>
       <c r="M26" t="e">
         <v>#NUM!</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>85</v>
@@ -4835,7 +4835,7 @@
         <v>0.05543710021321962</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M27" t="e">
         <v>#NUM!</v>
@@ -5099,7 +5099,7 @@
         <v>0.04477611940298507</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M33" t="e">
         <v>#NUM!</v>
@@ -5143,7 +5143,7 @@
         <v>0.05970149253731343</v>
       </c>
       <c r="L34" t="n">
-        <v>4.006172263299091E-18</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M34" t="e">
         <v>#NUM!</v>
@@ -5319,7 +5319,7 @@
         <v>0.04477611940298507</v>
       </c>
       <c r="L38" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M38" t="e">
         <v>#NUM!</v>
@@ -5462,7 +5462,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
         <v>85</v>
@@ -5583,7 +5583,7 @@
         <v>0.029850746268656716</v>
       </c>
       <c r="L44" t="n">
-        <v>1.635512977795599E-18</v>
+        <v>1.1564823173178713E-18</v>
       </c>
       <c r="M44" t="e">
         <v>#NUM!</v>
@@ -5715,7 +5715,7 @@
         <v>0.10021321961620469</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M47" t="e">
         <v>#NUM!</v>
@@ -5952,7 +5952,7 @@
         <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D53" t="e">
         <v>#NUM!</v>
@@ -5976,10 +5976,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K53" t="n">
-        <v>0.49296375266524517</v>
+        <v>0.48848614072494667</v>
       </c>
       <c r="L53" t="n">
-        <v>0.019302624246502302</v>
+        <v>0.009768365059575655</v>
       </c>
       <c r="M53" t="e">
         <v>#NUM!</v>
@@ -6064,10 +6064,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K55" t="n">
-        <v>0.47761194029850745</v>
+        <v>0.47995735607675905</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0</v>
+        <v>0.007416855919371459</v>
       </c>
       <c r="M55" t="e">
         <v>#NUM!</v>
@@ -6155,7 +6155,7 @@
         <v>0.2302771855010661</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0</v>
+        <v>9.25185853854297E-18</v>
       </c>
       <c r="M57" t="e">
         <v>#NUM!</v>
@@ -6260,7 +6260,7 @@
         <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D60" t="e">
         <v>#NUM!</v>
@@ -6328,10 +6328,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K61" t="n">
-        <v>0.4859275053304904</v>
+        <v>0.5002132196162047</v>
       </c>
       <c r="L61" t="n">
-        <v>0.006068336661303939</v>
+        <v>0.025943180338795835</v>
       </c>
       <c r="M61" t="e">
         <v>#NUM!</v>
@@ -6568,7 +6568,7 @@
         <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D67" t="e">
         <v>#NUM!</v>
@@ -6636,10 +6636,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K68" t="n">
-        <v>0.48187633262260127</v>
+        <v>0.48656716417910445</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0</v>
+        <v>0.01109288586503294</v>
       </c>
       <c r="M68" t="e">
         <v>#NUM!</v>
@@ -6727,7 +6727,7 @@
         <v>0.053304904051172705</v>
       </c>
       <c r="L70" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M70" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics.xlsx
+++ b/output/LUAD_statistics.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="152">
   <si>
     <t>capri_bic.SELECTS</t>
   </si>
@@ -57,183 +57,291 @@
     <t>5</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>Missense_Mutation KRAS</t>
-  </si>
-  <si>
-    <t>Missense_Mutation BRAF</t>
-  </si>
-  <si>
-    <t>Del/Ins_Mutations EGFR</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Mutation EGFR</t>
+  </si>
+  <si>
+    <t>Mutation TP53</t>
+  </si>
+  <si>
+    <t>Mutation ARID2</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDK4_TP53</t>
+  </si>
+  <si>
+    <t>Amplification CDK4</t>
+  </si>
+  <si>
+    <t>Mutation SMARCA4</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation KRAS</t>
   </si>
   <si>
     <t>Pattern OR_KRAS</t>
   </si>
   <si>
+    <t>Mutation KEAP1</t>
+  </si>
+  <si>
+    <t>Mutation ATM</t>
+  </si>
+  <si>
     <t>Amplification KRAS</t>
   </si>
   <si>
-    <t>Missense_Mutation EGFR</t>
-  </si>
-  <si>
-    <t>Nonsense_Mutation TP53</t>
-  </si>
-  <si>
-    <t>Amplification CDK4</t>
+    <t>Mutation ROS1</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_SMARCA4</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Amplification EGFR</t>
+  </si>
+  <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
+    <t>Pattern AND_PIK3CA_RB1</t>
+  </si>
+  <si>
+    <t>Amplification MDM2</t>
+  </si>
+  <si>
+    <t>Mutation NFE2L2</t>
+  </si>
+  <si>
+    <t>Amplification CCND1</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
+    <t>Mutation ARID1B</t>
   </si>
   <si>
     <t>Deletion CDKN2A</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Missense_Mutation PIK3CA</t>
-  </si>
-  <si>
-    <t>Amplification EGFR</t>
-  </si>
-  <si>
-    <t>Missense_Mutation ATM</t>
-  </si>
-  <si>
-    <t>Amplification MDM2</t>
+    <t>Mutation CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation RET</t>
+  </si>
+  <si>
+    <t>Amplification MET</t>
+  </si>
+  <si>
+    <t>Amplification CCNE1</t>
+  </si>
+  <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
+    <t>Mutation ALK</t>
+  </si>
+  <si>
+    <t>Mutation ARID1A</t>
+  </si>
+  <si>
+    <t>Mutation BRAF</t>
+  </si>
+  <si>
+    <t>Mutation ERBB2</t>
+  </si>
+  <si>
+    <t>Mutation MET</t>
+  </si>
+  <si>
+    <t>Mutation MTOR</t>
+  </si>
+  <si>
+    <t>Mutation NF1</t>
+  </si>
+  <si>
+    <t>Mutation PIK3CA</t>
+  </si>
+  <si>
+    <t>Mutation RBM10</t>
+  </si>
+  <si>
+    <t>Mutation SETD2</t>
+  </si>
+  <si>
+    <t>Pattern OR_BRAF_EGFR_KRAS_NF1</t>
+  </si>
+  <si>
+    <t>Pattern OR_BRAF_EGFR_KRAS_NF1_RIT1</t>
   </si>
   <si>
     <t>Pattern OR_EGFR</t>
   </si>
   <si>
-    <t>Amplification CCNE1</t>
-  </si>
-  <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
-    <t>Missense_Mutation KEAP1</t>
-  </si>
-  <si>
-    <t>Missense_Mutation NF1</t>
-  </si>
-  <si>
-    <t>Missense_Mutation SMARCA4</t>
-  </si>
-  <si>
-    <t>Missense_Mutation TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_BRAF_EGFR_KRAS_NF1</t>
-  </si>
-  <si>
-    <t>Pattern OR_BRAF_EGFR_KRAS_NF1_RIT1</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDK4_TP53</t>
-  </si>
-  <si>
     <t>Pattern OR_EGFR_KRAS</t>
   </si>
   <si>
     <t>Pattern OR_EGFR_KRAS_NF1</t>
   </si>
   <si>
-    <t>Pattern OR_EGFR_SMARCA4</t>
-  </si>
-  <si>
     <t>Pattern OR_EGFR_STK11</t>
   </si>
   <si>
@@ -243,13 +351,13 @@
     <t>Pattern OR_MDM2_TP53</t>
   </si>
   <si>
-    <t>Pattern OR_PIK3CA_STK11</t>
-  </si>
-  <si>
     <t>Pattern OR_STK11_TP53</t>
   </si>
   <si>
-    <t>Pattern OR_TP53</t>
+    <t>Pattern XOR_KRAS_EGFR</t>
+  </si>
+  <si>
+    <t>Pattern XOR_MET</t>
   </si>
   <si>
     <t>capri_aic.SELECTS</t>
@@ -291,7 +399,76 @@
     <t>capri_aic.SD.POSTERR</t>
   </si>
   <si>
-    <t>34</t>
+    <t>60</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
   </si>
 </sst>
 </file>
@@ -389,43 +566,43 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D2" t="n">
-        <v>141.0</v>
+        <v>65.0</v>
       </c>
       <c r="E2" t="n">
-        <v>33.0</v>
+        <v>28.0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.08255730457327E-5</v>
+        <v>6.62061019419833E-40</v>
       </c>
       <c r="G2" t="n">
-        <v>7.52343631600598E-4</v>
+        <v>7.28617208076127E-40</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0140980676882453</v>
+        <v>1.84249601824149E-8</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0</v>
+        <v>99.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.079317697228145</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0031465449354909254</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.070362473347548</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="3">
@@ -433,43 +610,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>37.0</v>
+        <v>250.0</v>
       </c>
       <c r="E3" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0076851904435617</v>
+        <v>6.78447607708541E-40</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0025710918098651</v>
+        <v>7.29105335271139E-40</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0373805643444922</v>
+        <v>2.85337647084671E-6</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>90.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L3" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>6.542051911182396E-18</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0554371002132196</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N3" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>6.5420519111824E-18</v>
       </c>
     </row>
     <row r="4">
@@ -477,43 +654,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0906911037794973</v>
+        <v>4.4059017720226E-40</v>
       </c>
       <c r="G4" t="n">
-        <v>9.08255730457327E-5</v>
+        <v>2.80388279688621E-39</v>
       </c>
       <c r="H4" t="n">
-        <v>1.68283658466976E-5</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>40.0</v>
+        <v>72.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.061407249466950954</v>
+        <v>0.004228329809725159</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001348519258067538</v>
+        <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0597014925373134</v>
+        <v>0.00422832980972516</v>
       </c>
       <c r="N4" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -521,43 +698,43 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>157.0</v>
+        <v>265.0</v>
       </c>
       <c r="E5" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="F5" t="n">
-        <v>8.98112524953542E-5</v>
+        <v>6.6780646105007E-40</v>
       </c>
       <c r="G5" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>7.22240061663926E-40</v>
       </c>
       <c r="H5" t="n">
-        <v>2.91648543766684E-4</v>
+        <v>2.35123065785807E-6</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>70.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0554371002132196</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="6">
@@ -565,43 +742,43 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="E6" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0512083318985354</v>
+        <v>4.2567941954014E-4</v>
       </c>
       <c r="G6" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>7.27855148517323E-40</v>
       </c>
       <c r="H6" t="n">
-        <v>3.76738142869211E-5</v>
+        <v>1.34895703589137E-9</v>
       </c>
       <c r="I6" t="n">
-        <v>20.0</v>
+        <v>65.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06183368869936034</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L6" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0618336886993603</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -609,43 +786,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D7" t="n">
-        <v>36.0</v>
+        <v>48.0</v>
       </c>
       <c r="E7" t="n">
-        <v>28.0</v>
+        <v>15.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00107172535674148</v>
+        <v>6.35703372325376E-40</v>
       </c>
       <c r="G7" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>5.55194292468331E-38</v>
       </c>
       <c r="H7" t="n">
-        <v>2.30863110048605E-4</v>
+        <v>0.00198021340048057</v>
       </c>
       <c r="I7" t="n">
-        <v>20.0</v>
+        <v>64.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.061407249466950954</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001348519258067538</v>
+        <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0597014925373134</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N7" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -653,40 +830,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D8" t="n">
-        <v>47.0</v>
+        <v>103.0</v>
       </c>
       <c r="E8" t="n">
-        <v>33.0</v>
+        <v>19.0</v>
       </c>
       <c r="F8" t="n">
-        <v>4.36432415062108E-4</v>
+        <v>6.51999369723878E-40</v>
       </c>
       <c r="G8" t="n">
-        <v>5.25016778886748E-4</v>
+        <v>1.25468290861042E-39</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0126499387888327</v>
+        <v>4.62499234591398E-4</v>
       </c>
       <c r="I8" t="n">
-        <v>20.0</v>
+        <v>62.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.079317697228145</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0031465449354909254</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.070362473347548</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -697,43 +874,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D9" t="n">
-        <v>29.0</v>
+        <v>141.0</v>
       </c>
       <c r="E9" t="n">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00921889121177242</v>
+        <v>6.91424234824968E-40</v>
       </c>
       <c r="G9" t="n">
-        <v>8.9307244186841E-5</v>
+        <v>5.22572749966404E-38</v>
       </c>
       <c r="H9" t="n">
-        <v>3.55042824234634E-9</v>
+        <v>0.00511448636585391</v>
       </c>
       <c r="I9" t="n">
-        <v>10.0</v>
+        <v>55.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L9" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0556503198294243</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N9" t="n">
-        <v>6.74259629033769E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -741,40 +918,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="D10" t="n">
-        <v>81.0</v>
+        <v>158.0</v>
       </c>
       <c r="E10" t="n">
-        <v>36.0</v>
+        <v>84.0</v>
       </c>
       <c r="F10" t="n">
-        <v>8.98112524953542E-5</v>
+        <v>7.04377675145043E-40</v>
       </c>
       <c r="G10" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>7.48419636793941E-40</v>
       </c>
       <c r="H10" t="n">
-        <v>7.15544633702017E-4</v>
+        <v>8.72881864945047E-5</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0</v>
+        <v>53.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0767590618336887</v>
+        <v>0.179492600422833</v>
       </c>
       <c r="L10" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.004280857659897791</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0767590618336887</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -785,40 +962,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D11" t="n">
-        <v>81.0</v>
+        <v>93.0</v>
       </c>
       <c r="E11" t="n">
-        <v>73.0</v>
+        <v>84.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0313120436535681</v>
+        <v>4.10865511869097E-15</v>
       </c>
       <c r="G11" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>7.29044301902058E-40</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00123497272542362</v>
+        <v>2.66335709542836E-4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.15565031982942432</v>
+        <v>0.179492600422833</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0</v>
+        <v>0.004280857659897791</v>
       </c>
       <c r="M11" t="n">
-        <v>0.155650319829424</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -829,43 +1006,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J12" t="e">
-        <v>#NUM!</v>
+        <v>77</v>
+      </c>
+      <c r="D12" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6.81526409297973E-40</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.07501177508528E-39</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.00244603283957377</v>
+      </c>
+      <c r="I12" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
-      <c r="M12" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N12" t="e">
-        <v>#NUM!</v>
+      <c r="M12" t="n">
+        <v>0.0549682875264271</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="13">
@@ -873,43 +1050,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J13" t="e">
-        <v>#NUM!</v>
+        <v>85</v>
+      </c>
+      <c r="D13" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.37169273862073E-40</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.50672171343806E-36</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.00625718664081437</v>
+      </c>
+      <c r="I13" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1257995735607676</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L13" t="n">
-        <v>9.25185853854297E-18</v>
-      </c>
-      <c r="M13" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N13" t="e">
-        <v>#NUM!</v>
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.040169133192389</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -917,43 +1094,43 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J14" t="e">
-        <v>#NUM!</v>
+        <v>75</v>
+      </c>
+      <c r="D14" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.81212204280953E-40</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.08858185548109E-39</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.24181844605938E-4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.17270788912579957</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L14" t="n">
         <v>0.0</v>
       </c>
-      <c r="M14" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N14" t="e">
-        <v>#NUM!</v>
+      <c r="M14" t="n">
+        <v>0.0972515856236787</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -961,43 +1138,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J15" t="e">
-        <v>#NUM!</v>
+        <v>69</v>
+      </c>
+      <c r="D15" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.93777120033396E-6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.27702830087346E-40</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.85557252274751E-5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07889125799573561</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
       </c>
-      <c r="M15" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N15" t="e">
-        <v>#NUM!</v>
+      <c r="M15" t="n">
+        <v>0.0613107822410148</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -1005,43 +1182,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J16" t="e">
-        <v>#NUM!</v>
+        <v>87</v>
+      </c>
+      <c r="D16" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.123041978875464</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.64811423823189E-40</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.57998188512074E-5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.14498933901918976</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N16" t="e">
-        <v>#NUM!</v>
+        <v>2.3129646346357427E-18</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0528541226215645</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -1049,43 +1226,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J17" t="e">
-        <v>#NUM!</v>
+        <v>88</v>
+      </c>
+      <c r="D17" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8.41039238887027E-40</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7.87697455852087E-40</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7.20794801965287E-4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3006396588486141</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
-      <c r="M17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N17" t="e">
-        <v>#NUM!</v>
+      <c r="M17" t="n">
+        <v>0.173361522198731</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -1093,43 +1270,43 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J18" t="e">
-        <v>#NUM!</v>
+        <v>89</v>
+      </c>
+      <c r="D18" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6.73035927110432E-40</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.04706416839736E-39</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9.10299739159604E-4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05970149253731343</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L18" t="n">
-        <v>2.3129646346357427E-18</v>
-      </c>
-      <c r="M18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N18" t="e">
-        <v>#NUM!</v>
+        <v>0.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0528541226215645</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -1137,43 +1314,43 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J19" t="e">
-        <v>#NUM!</v>
+        <v>90</v>
+      </c>
+      <c r="D19" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6.71457268463716E-40</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.27946554528017E-40</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.31452640435795E-4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.053304904051172705</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
       </c>
-      <c r="M19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N19" t="e">
-        <v>#NUM!</v>
+      <c r="M19" t="n">
+        <v>0.0486257928118393</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -1181,43 +1358,43 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J20" t="e">
-        <v>#NUM!</v>
+        <v>91</v>
+      </c>
+      <c r="D20" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6.68142644453629E-40</v>
+      </c>
+      <c r="G20" t="n">
+        <v>9.94395298537125E-40</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.00115041602190713</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.31343283582089554</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
       </c>
-      <c r="M20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N20" t="e">
-        <v>#NUM!</v>
+      <c r="M20" t="n">
+        <v>0.0317124735729387</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -1225,10 +1402,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1252,7 +1429,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K21" t="n">
-        <v>0.10021321961620469</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
@@ -1269,10 +1446,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -1296,7 +1473,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4200426439232409</v>
+        <v>0.12473572938689217</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
@@ -1313,10 +1490,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -1340,7 +1517,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K23" t="n">
-        <v>0.373134328358209</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
@@ -1357,10 +1534,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -1384,10 +1561,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K24" t="n">
-        <v>0.49083155650319826</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L24" t="n">
-        <v>0.014696866553589585</v>
+        <v>0.0</v>
       </c>
       <c r="M24" t="e">
         <v>#NUM!</v>
@@ -1401,10 +1578,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -1428,10 +1605,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K25" t="n">
-        <v>0.47761194029850745</v>
+        <v>0.06765327695560254</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0</v>
+        <v>6.542051911182396E-18</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>
@@ -1445,10 +1622,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -1472,7 +1649,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" t="n">
-        <v>0.47974413646055436</v>
+        <v>0.08668076109936575</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
@@ -1489,10 +1666,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1516,7 +1693,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2046908315565032</v>
+        <v>0.13742071881606766</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
@@ -1533,10 +1710,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -1560,7 +1737,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K28" t="n">
-        <v>0.21535181236673773</v>
+        <v>0.042283298097251586</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
@@ -1577,10 +1754,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -1604,7 +1781,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K29" t="n">
-        <v>0.3347547974413646</v>
+        <v>0.19661733615221988</v>
       </c>
       <c r="L29" t="n">
         <v>0.0</v>
@@ -1621,10 +1798,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -1648,7 +1825,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K30" t="n">
-        <v>0.302771855010661</v>
+        <v>0.29809725158562367</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
@@ -1665,10 +1842,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -1692,10 +1869,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4965884861407249</v>
+        <v>0.04439746300211417</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02003835891024866</v>
+        <v>0.0</v>
       </c>
       <c r="M31" t="e">
         <v>#NUM!</v>
@@ -1709,10 +1886,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -1736,10 +1913,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K32" t="n">
-        <v>0.11300639658848614</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0</v>
+        <v>4.625929269271485E-18</v>
       </c>
       <c r="M32" t="e">
         <v>#NUM!</v>
@@ -1753,10 +1930,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -1780,7 +1957,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K33" t="n">
-        <v>0.47121535181236673</v>
+        <v>0.13530655391120508</v>
       </c>
       <c r="L33" t="n">
         <v>0.0</v>
@@ -1797,42 +1974,878 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.05708245243128964</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N34" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.07822410147991543</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M35" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N35" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.07399577167019028</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N36" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.1014799154334038</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M37" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N37" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.4714587737843552</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N38" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.35517970401691334</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M39" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N39" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.3192389006342495</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M40" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N40" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.4397463002114165</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M41" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N41" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.21775898520084566</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M42" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N42" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1649048625792812</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M43" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N43" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
         <v>55</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.48414376321353064</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M44" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N44" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.4143763213530655</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M45" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N45" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s">
         <v>78</v>
       </c>
-      <c r="D34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.48976545842217484</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.016639328797549396</v>
-      </c>
-      <c r="M34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N34" t="e">
+      <c r="D46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.2536997885835095</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M46" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N46" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.33403805496828753</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N47" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.33403805496828753</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M48" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N48" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.26849894291754756</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M49" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N49" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.4376321353065539</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M50" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N50" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.35517970401691334</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M51" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N51" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.4693446088794926</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M52" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N52" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.07610993657505286</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N53" t="e">
         <v>#NUM!</v>
       </c>
     </row>
@@ -1852,128 +2865,128 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="K1" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="L1" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="M1" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D2" t="n">
-        <v>141.0</v>
+        <v>65.0</v>
       </c>
       <c r="E2" t="n">
-        <v>33.0</v>
+        <v>28.0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.08255730457327E-5</v>
+        <v>6.62061019419833E-40</v>
       </c>
       <c r="G2" t="n">
-        <v>7.52343631600598E-4</v>
+        <v>7.28617208076127E-40</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0140980676882453</v>
+        <v>1.84249601824149E-8</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0</v>
+        <v>99.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.079317697228145</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0031465449354909254</v>
+        <v>0.0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.070362473347548</v>
+        <v>0.125581395348837</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0</v>
+        <v>0.00662588260664871</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>37.0</v>
+        <v>250.0</v>
       </c>
       <c r="E3" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0076851904435617</v>
+        <v>6.78447607708541E-40</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0025710918098651</v>
+        <v>7.29105335271139E-40</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0373805643444922</v>
+        <v>2.85337647084671E-6</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>90.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="L3" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>6.542051911182396E-18</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0554371002132196</v>
+        <v>0.06553911205074</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -1981,87 +2994,87 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.0</v>
+        <v>2.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0906911037794973</v>
+        <v>4.4059017720226E-40</v>
       </c>
       <c r="G4" t="n">
-        <v>9.08255730457327E-5</v>
+        <v>2.80388279688621E-39</v>
       </c>
       <c r="H4" t="n">
-        <v>1.68283658466976E-5</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>40.0</v>
+        <v>72.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.061407249466950954</v>
+        <v>0.004228329809725159</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001348519258067538</v>
+        <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0597014925373134</v>
+        <v>0.00422832980972516</v>
       </c>
       <c r="N4" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>157.0</v>
+        <v>265.0</v>
       </c>
       <c r="E5" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="F5" t="n">
-        <v>8.98112524953542E-5</v>
+        <v>6.6780646105007E-40</v>
       </c>
       <c r="G5" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>7.22240061663926E-40</v>
       </c>
       <c r="H5" t="n">
-        <v>2.91648543766684E-4</v>
+        <v>2.35123065785807E-6</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>70.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0554371002132196</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N5" t="n">
         <v>2.31296463463574E-18</v>
@@ -2069,131 +3082,131 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="E6" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0512083318985354</v>
+        <v>4.2567941954014E-4</v>
       </c>
       <c r="G6" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>7.27855148517323E-40</v>
       </c>
       <c r="H6" t="n">
-        <v>3.76738142869211E-5</v>
+        <v>1.34895703589137E-9</v>
       </c>
       <c r="I6" t="n">
-        <v>20.0</v>
+        <v>65.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06183368869936034</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L6" t="n">
-        <v>3.271025955591198E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0618336886993603</v>
+        <v>0.0551797040169133</v>
       </c>
       <c r="N6" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>6.68557644855895E-4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="D7" t="n">
-        <v>36.0</v>
+        <v>48.0</v>
       </c>
       <c r="E7" t="n">
-        <v>28.0</v>
+        <v>15.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00107172535674148</v>
+        <v>6.35703372325376E-40</v>
       </c>
       <c r="G7" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>5.55194292468331E-38</v>
       </c>
       <c r="H7" t="n">
-        <v>2.30863110048605E-4</v>
+        <v>0.00198021340048057</v>
       </c>
       <c r="I7" t="n">
-        <v>20.0</v>
+        <v>64.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.061407249466950954</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001348519258067538</v>
+        <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0597014925373134</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N7" t="n">
-        <v>5.17194615259849E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D8" t="n">
-        <v>47.0</v>
+        <v>103.0</v>
       </c>
       <c r="E8" t="n">
-        <v>33.0</v>
+        <v>19.0</v>
       </c>
       <c r="F8" t="n">
-        <v>4.36432415062108E-4</v>
+        <v>6.51999369723878E-40</v>
       </c>
       <c r="G8" t="n">
-        <v>5.25016778886748E-4</v>
+        <v>1.25468290861042E-39</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0126499387888327</v>
+        <v>4.62499234591398E-4</v>
       </c>
       <c r="I8" t="n">
-        <v>20.0</v>
+        <v>62.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.079317697228145</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0031465449354909254</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.070362473347548</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -2201,87 +3214,87 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D9" t="n">
-        <v>29.0</v>
+        <v>141.0</v>
       </c>
       <c r="E9" t="n">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00921889121177242</v>
+        <v>6.91424234824968E-40</v>
       </c>
       <c r="G9" t="n">
-        <v>8.9307244186841E-5</v>
+        <v>5.22572749966404E-38</v>
       </c>
       <c r="H9" t="n">
-        <v>3.55042824234634E-9</v>
+        <v>0.00511448636585391</v>
       </c>
       <c r="I9" t="n">
-        <v>10.0</v>
+        <v>55.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L9" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.055863539445629</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N9" t="n">
-        <v>8.99012838711692E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D10" t="n">
-        <v>226.0</v>
+        <v>158.0</v>
       </c>
       <c r="E10" t="n">
-        <v>26.0</v>
+        <v>84.0</v>
       </c>
       <c r="F10" t="n">
-        <v>8.9307244186841E-5</v>
+        <v>7.04377675145043E-40</v>
       </c>
       <c r="G10" t="n">
-        <v>3.78878087856416E-5</v>
+        <v>7.48419636793941E-40</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0217618282215521</v>
+        <v>8.72881864945047E-5</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0</v>
+        <v>53.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05543710021321962</v>
+        <v>0.179492600422833</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0</v>
+        <v>0.004280857659897791</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0554371002132196</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -2289,131 +3302,131 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D11" t="n">
-        <v>242.0</v>
+        <v>93.0</v>
       </c>
       <c r="E11" t="n">
-        <v>28.0</v>
+        <v>84.0</v>
       </c>
       <c r="F11" t="n">
-        <v>9.03173604037676E-5</v>
+        <v>4.10865511869097E-15</v>
       </c>
       <c r="G11" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>7.29044301902058E-40</v>
       </c>
       <c r="H11" t="n">
-        <v>8.46743883599597E-5</v>
+        <v>2.66335709542836E-4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.061407249466950954</v>
+        <v>0.179492600422833</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001348519258067538</v>
+        <v>0.004280857659897791</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0597014925373134</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N11" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D12" t="n">
-        <v>157.0</v>
+        <v>250.0</v>
       </c>
       <c r="E12" t="n">
-        <v>59.0</v>
+        <v>26.0</v>
       </c>
       <c r="F12" t="n">
-        <v>9.03173604037676E-5</v>
+        <v>6.81526409297973E-40</v>
       </c>
       <c r="G12" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>1.07501177508528E-39</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00290455751166806</v>
+        <v>0.00244603283957377</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1257995735607676</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L12" t="n">
-        <v>9.25185853854297E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.125799573560768</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N12" t="n">
-        <v>1.60246890531964E-17</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D13" t="n">
-        <v>81.0</v>
+        <v>46.0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.0</v>
+        <v>19.0</v>
       </c>
       <c r="F13" t="n">
-        <v>8.98112524953542E-5</v>
+        <v>6.37169273862073E-40</v>
       </c>
       <c r="G13" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>4.50672171343806E-36</v>
       </c>
       <c r="H13" t="n">
-        <v>7.15544633702017E-4</v>
+        <v>0.00625718664081437</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0767590618336887</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L13" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0767590618336887</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
@@ -2421,969 +3434,2817 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D14" t="n">
-        <v>25.0</v>
+        <v>158.0</v>
       </c>
       <c r="E14" t="n">
-        <v>28.0</v>
+        <v>46.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.439666465454077</v>
+        <v>6.81212204280953E-40</v>
       </c>
       <c r="G14" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>1.08858185548109E-39</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0167184004726378</v>
+        <v>5.24181844605938E-4</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05970149253731343</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L14" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0597014925373134</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N14" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D15" t="n">
-        <v>81.0</v>
+        <v>34.0</v>
       </c>
       <c r="E15" t="n">
-        <v>73.0</v>
+        <v>29.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0313120436535681</v>
+        <v>1.93777120033396E-6</v>
       </c>
       <c r="G15" t="n">
-        <v>5.41254411223451E-6</v>
+        <v>7.27702830087346E-40</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00123497272542362</v>
+        <v>4.85557252274751E-5</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.15565031982942432</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.155650319829424</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0</v>
+        <v>3.2710259555912E-18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J16" t="e">
-        <v>#NUM!</v>
+        <v>87</v>
+      </c>
+      <c r="D16" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.123041978875464</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.64811423823189E-40</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.57998188512074E-5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.17270788912579957</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M16" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N16" t="e">
-        <v>#NUM!</v>
+        <v>2.3129646346357427E-18</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0528541226215645</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J17" t="e">
-        <v>#NUM!</v>
+        <v>88</v>
+      </c>
+      <c r="D17" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8.41039238887027E-40</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7.87697455852087E-40</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7.20794801965287E-4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07889125799573561</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
-      <c r="M17" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N17" t="e">
-        <v>#NUM!</v>
+      <c r="M17" t="n">
+        <v>0.173361522198731</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J18" t="e">
-        <v>#NUM!</v>
+        <v>90</v>
+      </c>
+      <c r="D18" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6.71457268463716E-40</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7.27946554528017E-40</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.31452640435795E-4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.14498933901918976</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
-      <c r="M18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N18" t="e">
-        <v>#NUM!</v>
+      <c r="M18" t="n">
+        <v>0.0486257928118393</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J19" t="e">
-        <v>#NUM!</v>
+        <v>91</v>
+      </c>
+      <c r="D19" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6.68142644453629E-40</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9.94395298537125E-40</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.00115041602190713</v>
+      </c>
+      <c r="I19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3006396588486141</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
       </c>
-      <c r="M19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N19" t="e">
-        <v>#NUM!</v>
+      <c r="M19" t="n">
+        <v>0.0317124735729387</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J20" t="e">
-        <v>#NUM!</v>
+        <v>85</v>
+      </c>
+      <c r="D20" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6.38833845503296E-40</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.39445381184039E-38</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.00779042176036544</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.053304904051172705</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
       </c>
-      <c r="M20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N20" t="e">
-        <v>#NUM!</v>
+      <c r="M20" t="n">
+        <v>0.040169133192389</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J21" t="e">
-        <v>#NUM!</v>
+        <v>92</v>
+      </c>
+      <c r="D21" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.85595245791414E-40</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.3129071634515E-39</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.00569157169607916</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.31343283582089554</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
       </c>
-      <c r="M21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N21" t="e">
-        <v>#NUM!</v>
+      <c r="M21" t="n">
+        <v>0.0570824524312896</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J22" t="e">
-        <v>#NUM!</v>
+        <v>80</v>
+      </c>
+      <c r="D22" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6.66491333441658E-40</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.25057469832801E-40</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.74024471587323E-5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.10021321961620469</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
       </c>
-      <c r="M22" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N22" t="e">
-        <v>#NUM!</v>
+      <c r="M22" t="n">
+        <v>0.0591966173361522</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J23" t="e">
-        <v>#NUM!</v>
+        <v>76</v>
+      </c>
+      <c r="D23" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6.88590287044601E-40</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.16310684538681E-32</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0701727616072848</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4200426439232409</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
       </c>
-      <c r="M23" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N23" t="e">
-        <v>#NUM!</v>
+      <c r="M23" t="n">
+        <v>0.0718816067653277</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J24" t="e">
-        <v>#NUM!</v>
+        <v>91</v>
+      </c>
+      <c r="D24" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.09566981326529E-35</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.73306592987826E-37</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.40686361386762E-4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.373134328358209</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
       </c>
-      <c r="M24" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N24" t="e">
-        <v>#NUM!</v>
+      <c r="M24" t="n">
+        <v>0.0317124735729387</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J25" t="e">
-        <v>#NUM!</v>
+        <v>91</v>
+      </c>
+      <c r="D25" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6.65374069558986E-40</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.04371749044116E-38</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.00618618057619634</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.49083155650319826</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L25" t="n">
-        <v>0.014696866553589585</v>
-      </c>
-      <c r="M25" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N25" t="e">
-        <v>#NUM!</v>
+        <v>0.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0317124735729387</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J26" t="e">
-        <v>#NUM!</v>
+        <v>93</v>
+      </c>
+      <c r="D26" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.83052462751531E-40</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.02777998346031E-36</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0212804829125014</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.47761194029850745</v>
+        <v>0.12473572938689217</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
       </c>
-      <c r="M26" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N26" t="e">
-        <v>#NUM!</v>
+      <c r="M26" t="n">
+        <v>0.124735729386892</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J27" t="e">
-        <v>#NUM!</v>
+        <v>93</v>
+      </c>
+      <c r="D27" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6.98090921941675E-40</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.19998155082336E-37</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.00799187556160401</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.47974413646055436</v>
+        <v>0.12473572938689217</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N27" t="e">
-        <v>#NUM!</v>
+      <c r="M27" t="n">
+        <v>0.124735729386892</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J28" t="e">
-        <v>#NUM!</v>
+        <v>94</v>
+      </c>
+      <c r="D28" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.01505927442223E-39</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.6473364152859E-38</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.015801813068233</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2046908315565032</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
       </c>
-      <c r="M28" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N28" t="e">
-        <v>#NUM!</v>
+      <c r="M28" t="n">
+        <v>0.0782241014799154</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J29" t="e">
-        <v>#NUM!</v>
+        <v>94</v>
+      </c>
+      <c r="D29" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6.82441265658854E-40</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.63193470513973E-36</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0196509105770497</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.21535181236673773</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L29" t="n">
         <v>0.0</v>
       </c>
-      <c r="M29" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N29" t="e">
-        <v>#NUM!</v>
+      <c r="M29" t="n">
+        <v>0.0782241014799154</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E30" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F30" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G30" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H30" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I30" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J30" t="e">
-        <v>#NUM!</v>
+        <v>95</v>
+      </c>
+      <c r="D30" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.17040830375075E-26</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.95820323499133E-35</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.00355084963998419</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3347547974413646</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
       </c>
-      <c r="M30" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N30" t="e">
-        <v>#NUM!</v>
+      <c r="M30" t="n">
+        <v>0.0591966173361522</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J31" t="e">
-        <v>#NUM!</v>
+        <v>95</v>
+      </c>
+      <c r="D31" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.39573877753511E-38</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.98879604898158E-37</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.00302736580446706</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.302771855010661</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L31" t="n">
         <v>0.0</v>
       </c>
-      <c r="M31" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N31" t="e">
-        <v>#NUM!</v>
+      <c r="M31" t="n">
+        <v>0.0591966173361522</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J32" t="e">
-        <v>#NUM!</v>
+        <v>95</v>
+      </c>
+      <c r="D32" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.94845645531215E-18</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.86198100017699E-31</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0120959984163719</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4965884861407249</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02003835891024866</v>
-      </c>
-      <c r="M32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N32" t="e">
-        <v>#NUM!</v>
+        <v>0.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0591966173361522</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.2710259555912E-18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J33" t="e">
-        <v>#NUM!</v>
+        <v>87</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4.58397350402533E-18</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.9101998730431E-38</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.00418038649774285</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.11300639658848614</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N33" t="e">
-        <v>#NUM!</v>
+        <v>2.3129646346357427E-18</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0528541226215645</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J34" t="e">
-        <v>#NUM!</v>
+        <v>87</v>
+      </c>
+      <c r="D34" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6.72443505576225E-40</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.09781247915985E-38</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0026983119224491</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.47121535181236673</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N34" t="e">
-        <v>#NUM!</v>
+        <v>2.3129646346357427E-18</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0528541226215645</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6.74137491846583E-40</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.25301463383227E-36</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0309840525412039</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.052854122621564484</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.3129646346357427E-18</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0528541226215645</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.2710259555912E-18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7.08776713864499E-40</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.77677165980675E-32</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0169538510920486</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.06765327695560254</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6.542051911182396E-18</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0676532769556025</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.62592926927149E-18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6.99447971513526E-40</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.08862721242306E-39</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.00233012897009903</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.09725158562367865</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0972515856236787</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.94282661729228E-6</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.90704125381158E-29</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0116660628744089</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.052854122621564484</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0528541226215645</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.40260987196722E-37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.4851274503466E-21</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0602556906466732</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.052854122621564484</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0528541226215645</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5.88006260038728E-19</v>
+      </c>
+      <c r="G40" t="n">
+        <v>9.47397557159981E-32</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.00418038649774285</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.052854122621564484</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0528541226215645</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4.89455423565382E-25</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.0379606270408E-34</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.00620484029822397</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.04439746300211417</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0443974630021142</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.18224967297081E-32</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.08779815667461E-23</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0504210727465188</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.04439746300211417</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0443974630021142</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.317634336923523</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.5287953916355E-34</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0151142034814424</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.06553911205073996</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.625929269271485E-18</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.06553911205074</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4.62592926927149E-18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7.0184460213191E-40</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6.65506671168917E-37</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0129625235414856</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.13530655391120508</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.135306553911205</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6.3741390607645E-40</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9.56933103974044E-7</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.391232444357474</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.03171247357293869</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0317124735729387</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3.87238352975648E-27</v>
+      </c>
+      <c r="G46" t="n">
+        <v>7.64662168922113E-31</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.015920859802431</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.05708245243128964</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0570824524312896</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.31296463463574E-18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.5914695313202E-34</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.0417489141216E-36</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0290712260886747</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.05708245243128964</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0570824524312896</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6.92323058032846E-40</v>
+      </c>
+      <c r="G48" t="n">
+        <v>9.53829121358289E-37</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0163640904154358</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.07822410147991543</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0782241014799154</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.16041300914019E-39</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.44041876650492E-28</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0615559278427358</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.048625792811839326</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0486257928118393</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6.71851593587149E-40</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8.657652038758E-28</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0643980845896721</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.048625792811839326</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0486257928118393</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.187530408524936</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.23277571097924E-33</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0100114243401225</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.05496828752642706</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0549682875264271</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3.2710259555912E-18</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7.27733792801213E-31</v>
+      </c>
+      <c r="G52" t="n">
+        <v>7.26543924727111E-39</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0109489626216288</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.05496828752642706</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.0549682875264271</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.30773904955111E-14</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.82027977464601E-35</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.00755548418996969</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.07399577167019028</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.0739957716701903</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6.93339230636724E-40</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.03610663649253E-33</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.01466470407627</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.1014799154334038</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.101479915433404</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>6.91018688506299E-40</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.68655327252332E-36</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0298762775986078</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.1014799154334038</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.101479915433404</v>
+      </c>
+      <c r="N55" t="n">
+        <v>4.62592926927149E-18</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7.05233863274677E-40</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.37790937065892E-31</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0697036636199116</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.21775898520084566</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.217758985200846</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6.99848010635561E-40</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7.24233951873675E-33</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0473841027382971</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.1649048625792812</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.164904862579281</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
         <v>78</v>
       </c>
-      <c r="D35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.48976545842217484</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.016639328797549396</v>
-      </c>
-      <c r="M35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N35" t="e">
+      <c r="D58" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7.01668208649256E-40</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.38395774525732E-38</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0127422154637544</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2536997885835095</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.25369978858351</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6.90208293024604E-40</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3.97703446026906E-33</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0285531595426109</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.07610993657505286</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.0761099365750529</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.58667435653596E-29</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.46605138313892E-22</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0593287703329668</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.07610993657505286</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.0761099365750529</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.08668076109936575</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N61" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.13742071881606766</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M62" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N62" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.042283298097251586</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M63" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N63" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.19661733615221988</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M64" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N64" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.29809725158562367</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M65" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N65" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.4714587737843552</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M66" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N66" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.35517970401691334</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M67" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N67" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3192389006342495</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N68" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.4397463002114165</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N69" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.48414376321353064</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N70" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.4143763213530655</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N71" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.33403805496828753</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M72" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N72" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E73" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F73" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G73" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H73" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I73" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J73" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.33403805496828753</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M73" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N73" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E74" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F74" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G74" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H74" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I74" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J74" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.26849894291754756</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M74" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N74" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.4376321353065539</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M75" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N75" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.35517970401691334</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M76" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N76" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.4693446088794926</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M77" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N77" t="e">
         <v>#NUM!</v>
       </c>
     </row>

--- a/output/LUAD_statistics.xlsx
+++ b/output/LUAD_statistics.xlsx
@@ -60,54 +60,54 @@
     <t>28</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>35</t>
+    <t>4</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>30</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -216,36 +216,36 @@
     <t>Mutation TP53</t>
   </si>
   <si>
+    <t>Pattern OR_CDK4_TP53</t>
+  </si>
+  <si>
+    <t>Amplification CDK4</t>
+  </si>
+  <si>
+    <t>Mutation KRAS</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation ATM</t>
+  </si>
+  <si>
+    <t>Mutation SMARCA4</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS</t>
+  </si>
+  <si>
     <t>Mutation ARID2</t>
   </si>
   <si>
-    <t>Pattern OR_CDK4_TP53</t>
-  </si>
-  <si>
-    <t>Amplification CDK4</t>
-  </si>
-  <si>
-    <t>Mutation SMARCA4</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation KRAS</t>
-  </si>
-  <si>
-    <t>Pattern OR_KRAS</t>
+    <t>Amplification KRAS</t>
   </si>
   <si>
     <t>Mutation KEAP1</t>
   </si>
   <si>
-    <t>Mutation ATM</t>
-  </si>
-  <si>
-    <t>Amplification KRAS</t>
-  </si>
-  <si>
     <t>Mutation ROS1</t>
   </si>
   <si>
@@ -261,33 +261,33 @@
     <t>Mutation RB1</t>
   </si>
   <si>
+    <t>Amplification MDM2</t>
+  </si>
+  <si>
+    <t>Amplification CCND1</t>
+  </si>
+  <si>
+    <t>Mutation NFE2L2</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
     <t>Pattern AND_PIK3CA_RB1</t>
   </si>
   <si>
-    <t>Amplification MDM2</t>
-  </si>
-  <si>
-    <t>Mutation NFE2L2</t>
-  </si>
-  <si>
-    <t>Amplification CCND1</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
+    <t>Mutation CDKN2A</t>
   </si>
   <si>
     <t>Mutation ARID1B</t>
   </si>
   <si>
+    <t>Mutation RET</t>
+  </si>
+  <si>
     <t>Deletion CDKN2A</t>
   </si>
   <si>
-    <t>Mutation CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation RET</t>
-  </si>
-  <si>
     <t>Amplification MET</t>
   </si>
   <si>
@@ -399,10 +399,10 @@
     <t>capri_aic.SD.POSTERR</t>
   </si>
   <si>
+    <t>58</t>
+  </si>
+  <si>
     <t>60</t>
-  </si>
-  <si>
-    <t>58</t>
   </si>
   <si>
     <t>57</t>
@@ -596,7 +596,7 @@
         <v>0.05919661733615222</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M2" t="n">
         <v>0.0591966173361522</v>
@@ -631,7 +631,7 @@
         <v>2.85337647084671E-6</v>
       </c>
       <c r="I3" t="n">
-        <v>90.0</v>
+        <v>95.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
@@ -640,13 +640,13 @@
         <v>0.06553911205073996</v>
       </c>
       <c r="L3" t="n">
-        <v>6.542051911182396E-18</v>
+        <v>8.012344526598183E-18</v>
       </c>
       <c r="M3" t="n">
         <v>0.06553911205074</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5420519111824E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -657,40 +657,40 @@
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>32.0</v>
+        <v>265.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>28.0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.4059017720226E-40</v>
+        <v>6.6780646105007E-40</v>
       </c>
       <c r="G4" t="n">
-        <v>2.80388279688621E-39</v>
+        <v>7.22240061663926E-40</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>2.35123065785807E-6</v>
       </c>
       <c r="I4" t="n">
-        <v>72.0</v>
+        <v>74.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004228329809725159</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00422832980972516</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="5">
@@ -701,37 +701,37 @@
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5" t="n">
-        <v>265.0</v>
+        <v>29.0</v>
       </c>
       <c r="E5" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.6780646105007E-40</v>
+        <v>4.2567941954014E-4</v>
       </c>
       <c r="G5" t="n">
-        <v>7.22240061663926E-40</v>
+        <v>7.27855148517323E-40</v>
       </c>
       <c r="H5" t="n">
-        <v>2.35123065785807E-6</v>
+        <v>1.34895703589137E-9</v>
       </c>
       <c r="I5" t="n">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N5" t="n">
         <v>2.31296463463574E-18</v>
@@ -745,37 +745,37 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>29.0</v>
+        <v>141.0</v>
       </c>
       <c r="E6" t="n">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.2567941954014E-4</v>
+        <v>6.91424234824968E-40</v>
       </c>
       <c r="G6" t="n">
-        <v>7.27855148517323E-40</v>
+        <v>5.22572749966404E-38</v>
       </c>
       <c r="H6" t="n">
-        <v>1.34895703589137E-9</v>
+        <v>0.00511448636585391</v>
       </c>
       <c r="I6" t="n">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -789,37 +789,37 @@
         <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" t="n">
-        <v>48.0</v>
+        <v>103.0</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="F7" t="n">
-        <v>6.35703372325376E-40</v>
+        <v>6.51999369723878E-40</v>
       </c>
       <c r="G7" t="n">
-        <v>5.55194292468331E-38</v>
+        <v>1.25468290861042E-39</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00198021340048057</v>
+        <v>4.62499234591398E-4</v>
       </c>
       <c r="I7" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -833,25 +833,25 @@
         <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" t="n">
-        <v>103.0</v>
+        <v>46.0</v>
       </c>
       <c r="E8" t="n">
         <v>19.0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.51999369723878E-40</v>
+        <v>6.37169273862073E-40</v>
       </c>
       <c r="G8" t="n">
-        <v>1.25468290861042E-39</v>
+        <v>4.50672171343806E-36</v>
       </c>
       <c r="H8" t="n">
-        <v>4.62499234591398E-4</v>
+        <v>0.00625718664081437</v>
       </c>
       <c r="I8" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
@@ -877,37 +877,37 @@
         <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D9" t="n">
-        <v>141.0</v>
+        <v>48.0</v>
       </c>
       <c r="E9" t="n">
-        <v>34.0</v>
+        <v>15.0</v>
       </c>
       <c r="F9" t="n">
-        <v>6.91424234824968E-40</v>
+        <v>6.35703372325376E-40</v>
       </c>
       <c r="G9" t="n">
-        <v>5.22572749966404E-38</v>
+        <v>5.55194292468331E-38</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00511448636585391</v>
+        <v>0.00198021340048057</v>
       </c>
       <c r="I9" t="n">
-        <v>55.0</v>
+        <v>62.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -921,37 +921,37 @@
         <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D10" t="n">
         <v>158.0</v>
       </c>
       <c r="E10" t="n">
-        <v>84.0</v>
+        <v>46.0</v>
       </c>
       <c r="F10" t="n">
-        <v>7.04377675145043E-40</v>
+        <v>6.81212204280953E-40</v>
       </c>
       <c r="G10" t="n">
-        <v>7.48419636793941E-40</v>
+        <v>1.08858185548109E-39</v>
       </c>
       <c r="H10" t="n">
-        <v>8.72881864945047E-5</v>
+        <v>5.24181844605938E-4</v>
       </c>
       <c r="I10" t="n">
-        <v>53.0</v>
+        <v>60.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.179492600422833</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004280857659897791</v>
+        <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -962,37 +962,37 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" t="n">
-        <v>93.0</v>
+        <v>158.0</v>
       </c>
       <c r="E11" t="n">
         <v>84.0</v>
       </c>
       <c r="F11" t="n">
-        <v>4.10865511869097E-15</v>
+        <v>7.04377675145043E-40</v>
       </c>
       <c r="G11" t="n">
-        <v>7.29044301902058E-40</v>
+        <v>7.48419636793941E-40</v>
       </c>
       <c r="H11" t="n">
-        <v>2.66335709542836E-4</v>
+        <v>8.72881864945047E-5</v>
       </c>
       <c r="I11" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.179492600422833</v>
+        <v>0.17716701902748416</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004280857659897791</v>
+        <v>0.0013371152897117948</v>
       </c>
       <c r="M11" t="n">
         <v>0.177589852008457</v>
@@ -1006,43 +1006,43 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D12" t="n">
-        <v>250.0</v>
+        <v>32.0</v>
       </c>
       <c r="E12" t="n">
-        <v>26.0</v>
+        <v>2.0</v>
       </c>
       <c r="F12" t="n">
-        <v>6.81526409297973E-40</v>
+        <v>4.4059017720226E-40</v>
       </c>
       <c r="G12" t="n">
-        <v>1.07501177508528E-39</v>
+        <v>2.80388279688621E-39</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00244603283957377</v>
+        <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="J12" t="n">
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.004228329809725159</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.00422832980972516</v>
       </c>
       <c r="N12" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -1053,37 +1053,37 @@
         <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D13" t="n">
-        <v>46.0</v>
+        <v>34.0</v>
       </c>
       <c r="E13" t="n">
-        <v>19.0</v>
+        <v>29.0</v>
       </c>
       <c r="F13" t="n">
-        <v>6.37169273862073E-40</v>
+        <v>1.93777120033396E-6</v>
       </c>
       <c r="G13" t="n">
-        <v>4.50672171343806E-36</v>
+        <v>7.27702830087346E-40</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00625718664081437</v>
+        <v>4.85557252274751E-5</v>
       </c>
       <c r="I13" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
@@ -1094,25 +1094,25 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D14" t="n">
-        <v>158.0</v>
+        <v>93.0</v>
       </c>
       <c r="E14" t="n">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.81212204280953E-40</v>
+        <v>4.10865511869097E-15</v>
       </c>
       <c r="G14" t="n">
-        <v>1.08858185548109E-39</v>
+        <v>7.29044301902058E-40</v>
       </c>
       <c r="H14" t="n">
-        <v>5.24181844605938E-4</v>
+        <v>2.66335709542836E-4</v>
       </c>
       <c r="I14" t="n">
         <v>45.0</v>
@@ -1121,13 +1121,13 @@
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.17716701902748416</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0</v>
+        <v>0.0013371152897117948</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -1138,40 +1138,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D15" t="n">
-        <v>34.0</v>
+        <v>250.0</v>
       </c>
       <c r="E15" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.93777120033396E-6</v>
+        <v>6.73035927110432E-40</v>
       </c>
       <c r="G15" t="n">
-        <v>7.27702830087346E-40</v>
+        <v>1.04706416839736E-39</v>
       </c>
       <c r="H15" t="n">
-        <v>4.85557252274751E-5</v>
+        <v>9.10299739159604E-4</v>
       </c>
       <c r="I15" t="n">
-        <v>44.0</v>
+        <v>22.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0613107822410148</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0613107822410148</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N15" t="n">
         <v>0.0</v>
@@ -1185,7 +1185,7 @@
         <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" t="n">
         <v>26.0</v>
@@ -1203,7 +1203,7 @@
         <v>1.57998188512074E-5</v>
       </c>
       <c r="I16" t="n">
-        <v>41.0</v>
+        <v>21.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
@@ -1212,7 +1212,7 @@
         <v>0.052854122621564484</v>
       </c>
       <c r="L16" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M16" t="n">
         <v>0.0528541226215645</v>
@@ -1226,40 +1226,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D17" t="n">
-        <v>120.0</v>
+        <v>250.0</v>
       </c>
       <c r="E17" t="n">
-        <v>82.0</v>
+        <v>26.0</v>
       </c>
       <c r="F17" t="n">
-        <v>8.41039238887027E-40</v>
+        <v>6.81526409297973E-40</v>
       </c>
       <c r="G17" t="n">
-        <v>7.87697455852087E-40</v>
+        <v>1.07501177508528E-39</v>
       </c>
       <c r="H17" t="n">
-        <v>7.20794801965287E-4</v>
+        <v>0.00244603283957377</v>
       </c>
       <c r="I17" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="J17" t="n">
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.173361522198731</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -1270,40 +1270,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
         <v>89</v>
       </c>
       <c r="D18" t="n">
-        <v>250.0</v>
+        <v>265.0</v>
       </c>
       <c r="E18" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="F18" t="n">
-        <v>6.73035927110432E-40</v>
+        <v>6.71457268463716E-40</v>
       </c>
       <c r="G18" t="n">
-        <v>1.04706416839736E-39</v>
+        <v>7.27946554528017E-40</v>
       </c>
       <c r="H18" t="n">
-        <v>9.10299739159604E-4</v>
+        <v>2.31452640435795E-4</v>
       </c>
       <c r="I18" t="n">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
       <c r="J18" t="n">
         <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -1314,40 +1314,40 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>90</v>
       </c>
       <c r="D19" t="n">
-        <v>265.0</v>
+        <v>120.0</v>
       </c>
       <c r="E19" t="n">
-        <v>23.0</v>
+        <v>82.0</v>
       </c>
       <c r="F19" t="n">
-        <v>6.71457268463716E-40</v>
+        <v>8.41039238887027E-40</v>
       </c>
       <c r="G19" t="n">
-        <v>7.27946554528017E-40</v>
+        <v>7.87697455852087E-40</v>
       </c>
       <c r="H19" t="n">
-        <v>2.31452640435795E-4</v>
+        <v>7.20794801965287E-4</v>
       </c>
       <c r="I19" t="n">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="J19" t="n">
         <v>100.0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.173361522198731</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
@@ -1358,7 +1358,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
         <v>91</v>
@@ -1379,7 +1379,7 @@
         <v>0.00115041602190713</v>
       </c>
       <c r="I20" t="n">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
       <c r="J20" t="n">
         <v>100.0</v>
@@ -1564,7 +1564,7 @@
         <v>0.05919661733615222</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M24" t="e">
         <v>#NUM!</v>
@@ -1581,7 +1581,7 @@
         <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -1608,7 +1608,7 @@
         <v>0.06765327695560254</v>
       </c>
       <c r="L25" t="n">
-        <v>6.542051911182396E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M25" t="e">
         <v>#NUM!</v>
@@ -1757,7 +1757,7 @@
         <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -1801,7 +1801,7 @@
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -1916,7 +1916,7 @@
         <v>0.06553911205073996</v>
       </c>
       <c r="L32" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>8.012344526598183E-18</v>
       </c>
       <c r="M32" t="e">
         <v>#NUM!</v>
@@ -2004,7 +2004,7 @@
         <v>0.05708245243128964</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M34" t="e">
         <v>#NUM!</v>
@@ -2109,7 +2109,7 @@
         <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -2285,7 +2285,7 @@
         <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -2329,7 +2329,7 @@
         <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -2441,10 +2441,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K44" t="n">
-        <v>0.48414376321353064</v>
+        <v>0.49217758985200843</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0</v>
+        <v>0.01693679366968268</v>
       </c>
       <c r="M44" t="e">
         <v>#NUM!</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -2939,13 +2939,13 @@
         <v>0.05919661733615222</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M2" t="n">
-        <v>0.125581395348837</v>
+        <v>0.12093023255814</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00662588260664871</v>
+        <v>0.00596312778049505</v>
       </c>
     </row>
     <row r="3">
@@ -2974,7 +2974,7 @@
         <v>2.85337647084671E-6</v>
       </c>
       <c r="I3" t="n">
-        <v>90.0</v>
+        <v>95.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
@@ -2983,186 +2983,186 @@
         <v>0.06553911205073996</v>
       </c>
       <c r="L3" t="n">
-        <v>6.542051911182396E-18</v>
+        <v>8.012344526598183E-18</v>
       </c>
       <c r="M3" t="n">
         <v>0.06553911205074</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0</v>
+        <v>4.62592926927149E-18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>32.0</v>
+        <v>265.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>28.0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.4059017720226E-40</v>
+        <v>6.6780646105007E-40</v>
       </c>
       <c r="G4" t="n">
-        <v>2.80388279688621E-39</v>
+        <v>7.22240061663926E-40</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0</v>
+        <v>2.35123065785807E-6</v>
       </c>
       <c r="I4" t="n">
-        <v>72.0</v>
+        <v>74.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004228329809725159</v>
+        <v>0.05919661733615222</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00422832980972516</v>
+        <v>0.0591966173361522</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0</v>
+        <v>3.2710259555912E-18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5" t="n">
-        <v>265.0</v>
+        <v>29.0</v>
       </c>
       <c r="E5" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.6780646105007E-40</v>
+        <v>4.2567941954014E-4</v>
       </c>
       <c r="G5" t="n">
-        <v>7.22240061663926E-40</v>
+        <v>7.27855148517323E-40</v>
       </c>
       <c r="H5" t="n">
-        <v>2.35123065785807E-6</v>
+        <v>1.34895703589137E-9</v>
       </c>
       <c r="I5" t="n">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05919661733615222</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0591966173361522</v>
+        <v>0.0551797040169133</v>
       </c>
       <c r="N5" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>6.68557644855895E-4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>29.0</v>
+        <v>141.0</v>
       </c>
       <c r="E6" t="n">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.2567941954014E-4</v>
+        <v>6.91424234824968E-40</v>
       </c>
       <c r="G6" t="n">
-        <v>7.27855148517323E-40</v>
+        <v>5.22572749966404E-38</v>
       </c>
       <c r="H6" t="n">
-        <v>1.34895703589137E-9</v>
+        <v>0.00511448636585391</v>
       </c>
       <c r="I6" t="n">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.07188160676532769</v>
       </c>
       <c r="L6" t="n">
         <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0551797040169133</v>
+        <v>0.0718816067653277</v>
       </c>
       <c r="N6" t="n">
-        <v>6.68557644855895E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" t="n">
-        <v>48.0</v>
+        <v>103.0</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="F7" t="n">
-        <v>6.35703372325376E-40</v>
+        <v>6.51999369723878E-40</v>
       </c>
       <c r="G7" t="n">
-        <v>5.55194292468331E-38</v>
+        <v>1.25468290861042E-39</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00198021340048057</v>
+        <v>4.62499234591398E-4</v>
       </c>
       <c r="I7" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="L7" t="n">
         <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0317124735729387</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="N7" t="n">
         <v>0.0</v>
@@ -3170,31 +3170,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" t="n">
-        <v>103.0</v>
+        <v>46.0</v>
       </c>
       <c r="E8" t="n">
         <v>19.0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.51999369723878E-40</v>
+        <v>6.37169273862073E-40</v>
       </c>
       <c r="G8" t="n">
-        <v>1.25468290861042E-39</v>
+        <v>4.50672171343806E-36</v>
       </c>
       <c r="H8" t="n">
-        <v>4.62499234591398E-4</v>
+        <v>0.00625718664081437</v>
       </c>
       <c r="I8" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
@@ -3214,43 +3214,43 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D9" t="n">
-        <v>141.0</v>
+        <v>48.0</v>
       </c>
       <c r="E9" t="n">
-        <v>34.0</v>
+        <v>15.0</v>
       </c>
       <c r="F9" t="n">
-        <v>6.91424234824968E-40</v>
+        <v>6.35703372325376E-40</v>
       </c>
       <c r="G9" t="n">
-        <v>5.22572749966404E-38</v>
+        <v>5.55194292468331E-38</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00511448636585391</v>
+        <v>0.00198021340048057</v>
       </c>
       <c r="I9" t="n">
-        <v>55.0</v>
+        <v>62.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07188160676532769</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0718816067653277</v>
+        <v>0.0317124735729387</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -3258,43 +3258,43 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D10" t="n">
         <v>158.0</v>
       </c>
       <c r="E10" t="n">
-        <v>84.0</v>
+        <v>46.0</v>
       </c>
       <c r="F10" t="n">
-        <v>7.04377675145043E-40</v>
+        <v>6.81212204280953E-40</v>
       </c>
       <c r="G10" t="n">
-        <v>7.48419636793941E-40</v>
+        <v>1.08858185548109E-39</v>
       </c>
       <c r="H10" t="n">
-        <v>8.72881864945047E-5</v>
+        <v>5.24181844605938E-4</v>
       </c>
       <c r="I10" t="n">
-        <v>53.0</v>
+        <v>60.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.179492600422833</v>
+        <v>0.09725158562367865</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004280857659897791</v>
+        <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.177589852008457</v>
+        <v>0.0972515856236787</v>
       </c>
       <c r="N10" t="n">
         <v>0.0</v>
@@ -3302,40 +3302,40 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" t="n">
-        <v>93.0</v>
+        <v>158.0</v>
       </c>
       <c r="E11" t="n">
         <v>84.0</v>
       </c>
       <c r="F11" t="n">
-        <v>4.10865511869097E-15</v>
+        <v>7.04377675145043E-40</v>
       </c>
       <c r="G11" t="n">
-        <v>7.29044301902058E-40</v>
+        <v>7.48419636793941E-40</v>
       </c>
       <c r="H11" t="n">
-        <v>2.66335709542836E-4</v>
+        <v>8.72881864945047E-5</v>
       </c>
       <c r="I11" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.179492600422833</v>
+        <v>0.17716701902748416</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004280857659897791</v>
+        <v>0.0013371152897117948</v>
       </c>
       <c r="M11" t="n">
         <v>0.177589852008457</v>
@@ -3346,116 +3346,116 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D12" t="n">
-        <v>250.0</v>
+        <v>32.0</v>
       </c>
       <c r="E12" t="n">
-        <v>26.0</v>
+        <v>2.0</v>
       </c>
       <c r="F12" t="n">
-        <v>6.81526409297973E-40</v>
+        <v>4.4059017720226E-40</v>
       </c>
       <c r="G12" t="n">
-        <v>1.07501177508528E-39</v>
+        <v>2.80388279688621E-39</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00244603283957377</v>
+        <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="J12" t="n">
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05496828752642706</v>
+        <v>0.004228329809725159</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0549682875264271</v>
+        <v>0.00422832980972516</v>
       </c>
       <c r="N12" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D13" t="n">
-        <v>46.0</v>
+        <v>34.0</v>
       </c>
       <c r="E13" t="n">
-        <v>19.0</v>
+        <v>29.0</v>
       </c>
       <c r="F13" t="n">
-        <v>6.37169273862073E-40</v>
+        <v>1.93777120033396E-6</v>
       </c>
       <c r="G13" t="n">
-        <v>4.50672171343806E-36</v>
+        <v>7.27702830087346E-40</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00625718664081437</v>
+        <v>4.85557252274751E-5</v>
       </c>
       <c r="I13" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="L13" t="n">
         <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.040169133192389</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D14" t="n">
-        <v>158.0</v>
+        <v>93.0</v>
       </c>
       <c r="E14" t="n">
-        <v>46.0</v>
+        <v>84.0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.81212204280953E-40</v>
+        <v>4.10865511869097E-15</v>
       </c>
       <c r="G14" t="n">
-        <v>1.08858185548109E-39</v>
+        <v>7.29044301902058E-40</v>
       </c>
       <c r="H14" t="n">
-        <v>5.24181844605938E-4</v>
+        <v>2.66335709542836E-4</v>
       </c>
       <c r="I14" t="n">
         <v>45.0</v>
@@ -3464,13 +3464,13 @@
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.09725158562367865</v>
+        <v>0.17716701902748416</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0</v>
+        <v>0.0013371152897117948</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0972515856236787</v>
+        <v>0.177589852008457</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -3478,87 +3478,87 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D15" t="n">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="E15" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.93777120033396E-6</v>
+        <v>0.123041978875464</v>
       </c>
       <c r="G15" t="n">
-        <v>7.27702830087346E-40</v>
+        <v>7.64811423823189E-40</v>
       </c>
       <c r="H15" t="n">
-        <v>4.85557252274751E-5</v>
+        <v>1.57998188512074E-5</v>
       </c>
       <c r="I15" t="n">
-        <v>44.0</v>
+        <v>21.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0613107822410148</v>
+        <v>0.052854122621564484</v>
       </c>
       <c r="L15" t="n">
         <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0613107822410148</v>
+        <v>0.0528541226215645</v>
       </c>
       <c r="N15" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
       <c r="D16" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E16" t="n">
         <v>26.0</v>
       </c>
-      <c r="E16" t="n">
-        <v>25.0</v>
-      </c>
       <c r="F16" t="n">
-        <v>0.123041978875464</v>
+        <v>6.81526409297973E-40</v>
       </c>
       <c r="G16" t="n">
-        <v>7.64811423823189E-40</v>
+        <v>1.07501177508528E-39</v>
       </c>
       <c r="H16" t="n">
-        <v>1.57998188512074E-5</v>
+        <v>0.00244603283957377</v>
       </c>
       <c r="I16" t="n">
-        <v>41.0</v>
+        <v>20.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.052854122621564484</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="L16" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0528541226215645</v>
+        <v>0.0549682875264271</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -3566,43 +3566,43 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" t="n">
-        <v>120.0</v>
+        <v>265.0</v>
       </c>
       <c r="E17" t="n">
-        <v>82.0</v>
+        <v>23.0</v>
       </c>
       <c r="F17" t="n">
-        <v>8.41039238887027E-40</v>
+        <v>6.71457268463716E-40</v>
       </c>
       <c r="G17" t="n">
-        <v>7.87697455852087E-40</v>
+        <v>7.27946554528017E-40</v>
       </c>
       <c r="H17" t="n">
-        <v>7.20794801965287E-4</v>
+        <v>2.31452640435795E-4</v>
       </c>
       <c r="I17" t="n">
-        <v>30.0</v>
+        <v>18.0</v>
       </c>
       <c r="J17" t="n">
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1733615221987315</v>
+        <v>0.048625792811839326</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.173361522198731</v>
+        <v>0.0486257928118393</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -3610,43 +3610,43 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
         <v>90</v>
       </c>
       <c r="D18" t="n">
-        <v>265.0</v>
+        <v>120.0</v>
       </c>
       <c r="E18" t="n">
-        <v>23.0</v>
+        <v>82.0</v>
       </c>
       <c r="F18" t="n">
-        <v>6.71457268463716E-40</v>
+        <v>8.41039238887027E-40</v>
       </c>
       <c r="G18" t="n">
-        <v>7.27946554528017E-40</v>
+        <v>7.87697455852087E-40</v>
       </c>
       <c r="H18" t="n">
-        <v>2.31452640435795E-4</v>
+        <v>7.20794801965287E-4</v>
       </c>
       <c r="I18" t="n">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="J18" t="n">
         <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.048625792811839326</v>
+        <v>0.1733615221987315</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0486257928118393</v>
+        <v>0.173361522198731</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -3657,7 +3657,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
@@ -3678,7 +3678,7 @@
         <v>0.00115041602190713</v>
       </c>
       <c r="I19" t="n">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
       <c r="J19" t="n">
         <v>100.0</v>
@@ -3698,13 +3698,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" t="n">
         <v>48.0</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>66</v>
@@ -3781,12 +3781,12 @@
         <v>0.0570824524312896</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0</v>
+        <v>2.31296463463574E-18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>111</v>
@@ -3819,7 +3819,7 @@
         <v>0.05919661733615222</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M22" t="n">
         <v>0.0591966173361522</v>
@@ -3836,7 +3836,7 @@
         <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" t="n">
         <v>250.0</v>
@@ -3965,7 +3965,7 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
         <v>93</v>
@@ -4001,12 +4001,12 @@
         <v>0.124735729386892</v>
       </c>
       <c r="N26" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
@@ -4045,12 +4045,12 @@
         <v>0.124735729386892</v>
       </c>
       <c r="N27" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>100</v>
@@ -4133,7 +4133,7 @@
         <v>0.0782241014799154</v>
       </c>
       <c r="N29" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -4171,13 +4171,13 @@
         <v>0.05919661733615222</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M30" t="n">
         <v>0.0591966173361522</v>
       </c>
       <c r="N30" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -4185,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
         <v>95</v>
@@ -4215,7 +4215,7 @@
         <v>0.05919661733615222</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M31" t="n">
         <v>0.0591966173361522</v>
@@ -4259,13 +4259,13 @@
         <v>0.05919661733615222</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0</v>
+        <v>2.3129646346357427E-18</v>
       </c>
       <c r="M32" t="n">
         <v>0.0591966173361522</v>
       </c>
       <c r="N32" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -4276,7 +4276,7 @@
         <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" t="n">
         <v>31.0</v>
@@ -4303,13 +4303,13 @@
         <v>0.052854122621564484</v>
       </c>
       <c r="L33" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M33" t="n">
         <v>0.0528541226215645</v>
       </c>
       <c r="N33" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -4320,7 +4320,7 @@
         <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34" t="n">
         <v>64.0</v>
@@ -4347,7 +4347,7 @@
         <v>0.052854122621564484</v>
       </c>
       <c r="L34" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M34" t="n">
         <v>0.0528541226215645</v>
@@ -4358,13 +4358,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
         <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D35" t="n">
         <v>120.0</v>
@@ -4391,13 +4391,13 @@
         <v>0.052854122621564484</v>
       </c>
       <c r="L35" t="n">
-        <v>2.3129646346357427E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M35" t="n">
         <v>0.0528541226215645</v>
       </c>
       <c r="N35" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -4408,7 +4408,7 @@
         <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D36" t="n">
         <v>64.0</v>
@@ -4435,7 +4435,7 @@
         <v>0.06765327695560254</v>
       </c>
       <c r="L36" t="n">
-        <v>6.542051911182396E-18</v>
+        <v>0.0</v>
       </c>
       <c r="M36" t="n">
         <v>0.0676532769556025</v>
@@ -4449,10 +4449,10 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D37" t="n">
         <v>84.0</v>
@@ -4490,13 +4490,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
         <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D38" t="n">
         <v>28.0</v>
@@ -4540,7 +4540,7 @@
         <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D39" t="n">
         <v>41.0</v>
@@ -4584,7 +4584,7 @@
         <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D40" t="n">
         <v>31.0</v>
@@ -4625,7 +4625,7 @@
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
         <v>98</v>
@@ -4669,7 +4669,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
         <v>98</v>
@@ -4713,7 +4713,7 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
         <v>99</v>
@@ -4743,13 +4743,13 @@
         <v>0.06553911205073996</v>
       </c>
       <c r="L43" t="n">
-        <v>4.625929269271485E-18</v>
+        <v>8.012344526598183E-18</v>
       </c>
       <c r="M43" t="n">
         <v>0.06553911205074</v>
       </c>
       <c r="N43" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -4757,7 +4757,7 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
         <v>100</v>
@@ -4875,13 +4875,13 @@
         <v>0.05708245243128964</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M46" t="n">
         <v>0.0570824524312896</v>
       </c>
       <c r="N46" t="n">
-        <v>2.31296463463574E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -4919,7 +4919,7 @@
         <v>0.05708245243128964</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0</v>
+        <v>3.271025955591198E-18</v>
       </c>
       <c r="M47" t="n">
         <v>0.0570824524312896</v>
@@ -4977,10 +4977,10 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D49" t="n">
         <v>46.0</v>
@@ -5021,10 +5021,10 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D50" t="n">
         <v>93.0</v>
@@ -5065,7 +5065,7 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
         <v>77</v>
@@ -5101,7 +5101,7 @@
         <v>0.0549682875264271</v>
       </c>
       <c r="N51" t="n">
-        <v>3.2710259555912E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -5197,10 +5197,10 @@
         <v>133</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D54" t="n">
         <v>93.0</v>
@@ -5244,7 +5244,7 @@
         <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D55" t="n">
         <v>250.0</v>
@@ -5277,7 +5277,7 @@
         <v>0.101479915433404</v>
       </c>
       <c r="N55" t="n">
-        <v>4.62592926927149E-18</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -5288,7 +5288,7 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D56" t="n">
         <v>250.0</v>
@@ -5417,7 +5417,7 @@
         <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
         <v>114</v>
@@ -5461,7 +5461,7 @@
         <v>139</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
         <v>114</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
         <v>79</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
         <v>79</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
         <v>79</v>
@@ -5640,7 +5640,7 @@
         <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D64" t="e">
         <v>#NUM!</v>
@@ -5678,13 +5678,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
         <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D65" t="e">
         <v>#NUM!</v>
@@ -5860,7 +5860,7 @@
         <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" t="e">
         <v>#NUM!</v>
@@ -5928,10 +5928,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K70" t="n">
-        <v>0.48414376321353064</v>
+        <v>0.49217758985200843</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0</v>
+        <v>0.01693679366968268</v>
       </c>
       <c r="M70" t="e">
         <v>#NUM!</v>
